--- a/2021/Hectare 2021/Hectare_trees_all_2021.xlsx
+++ b/2021/Hectare 2021/Hectare_trees_all_2021.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melinakozanitas/GitHub/PepperwoodVegPlots/2021/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melinakozanitas/GitHub/PepperwoodVegPlots/2021/Hectare 2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B728B46-6BB5-9C43-B683-07CC7C20AA9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9CB2FA0-0C68-CE4C-B82F-50D45F3C4C6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{4EAED32D-F09D-3B42-884D-B647C8FC0EA4}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="17040" xr2:uid="{4EAED32D-F09D-3B42-884D-B647C8FC0EA4}"/>
   </bookViews>
   <sheets>
-    <sheet name="2052_Hectare_Install" sheetId="1" r:id="rId1"/>
+    <sheet name="2152_Hectare_Install" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -355,10 +355,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -675,8 +674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30DF81A7-F37F-DB49-8755-3503CC0DC9C9}">
   <dimension ref="A1:O442"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="119" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="119" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -738,10 +737,10 @@
       <c r="C2">
         <v>11001</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2">
         <v>527371</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2">
         <v>4269668</v>
       </c>
       <c r="F2" t="s">
@@ -776,10 +775,10 @@
       <c r="C3">
         <v>11001.1</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3">
         <v>527371</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3">
         <v>4269668</v>
       </c>
       <c r="F3" t="s">
@@ -814,10 +813,10 @@
       <c r="C4">
         <v>11001.2</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4">
         <v>527371</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4">
         <v>4269668</v>
       </c>
       <c r="F4" t="s">
@@ -852,10 +851,10 @@
       <c r="C5">
         <v>999.1</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5">
         <v>527371</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5">
         <v>4269668</v>
       </c>
       <c r="F5" t="s">
@@ -890,10 +889,10 @@
       <c r="C6">
         <v>11002</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6">
         <v>527365</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6">
         <v>4269675</v>
       </c>
       <c r="F6" t="s">
@@ -937,10 +936,10 @@
       <c r="C7">
         <v>11002.1</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7">
         <v>527365</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7">
         <v>4269675</v>
       </c>
       <c r="F7" t="s">
@@ -975,10 +974,10 @@
       <c r="C8">
         <v>11003</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8">
         <v>527360</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8">
         <v>4269673</v>
       </c>
       <c r="F8" t="s">
@@ -1013,10 +1012,10 @@
       <c r="C9">
         <v>11004</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9">
         <v>527361</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9">
         <v>4269672</v>
       </c>
       <c r="F9" t="s">
@@ -1060,10 +1059,10 @@
       <c r="C10">
         <v>999.2</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10">
         <v>527361</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10">
         <v>4269672</v>
       </c>
       <c r="F10" t="s">
@@ -1098,10 +1097,10 @@
       <c r="C11">
         <v>11005</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11">
         <v>527354</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11">
         <v>4269677</v>
       </c>
       <c r="F11" t="s">
@@ -1142,10 +1141,10 @@
       <c r="C12">
         <v>11005.1</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12">
         <v>527354</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12">
         <v>4269677</v>
       </c>
       <c r="F12" t="s">
@@ -1180,10 +1179,10 @@
       <c r="C13">
         <v>11005.2</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13">
         <v>527354</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13">
         <v>4269677</v>
       </c>
       <c r="F13" t="s">
@@ -1218,10 +1217,10 @@
       <c r="C14">
         <v>11005.3</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14">
         <v>527354</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14">
         <v>4269677</v>
       </c>
       <c r="F14" t="s">
@@ -1256,10 +1255,10 @@
       <c r="C15">
         <v>999.3</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15">
         <v>527354</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15">
         <v>4269677</v>
       </c>
       <c r="F15" t="s">
@@ -1294,10 +1293,10 @@
       <c r="C16">
         <v>11006</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16">
         <v>527356</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16">
         <v>4269694</v>
       </c>
       <c r="F16" t="s">
@@ -1332,10 +1331,10 @@
       <c r="C17">
         <v>11006.1</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17">
         <v>527356</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17">
         <v>4269694</v>
       </c>
       <c r="F17" t="s">
@@ -1370,10 +1369,10 @@
       <c r="C18">
         <v>999.4</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18">
         <v>527356</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18">
         <v>4269694</v>
       </c>
       <c r="F18" t="s">
@@ -1408,10 +1407,10 @@
       <c r="C19">
         <v>11007</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19">
         <v>527364</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19">
         <v>4269700</v>
       </c>
       <c r="F19" t="s">
@@ -1446,10 +1445,10 @@
       <c r="C20">
         <v>11007.1</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20">
         <v>527364</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20">
         <v>4269700</v>
       </c>
       <c r="F20" t="s">
@@ -1484,10 +1483,10 @@
       <c r="C21">
         <v>11007.2</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21">
         <v>527364</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21">
         <v>4269700</v>
       </c>
       <c r="F21" t="s">
@@ -1522,10 +1521,10 @@
       <c r="C22">
         <v>11007.3</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22">
         <v>527364</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22">
         <v>4269700</v>
       </c>
       <c r="F22" t="s">
@@ -1560,10 +1559,10 @@
       <c r="C23">
         <v>11007.4</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23">
         <v>527364</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23">
         <v>4269700</v>
       </c>
       <c r="F23" t="s">
@@ -1598,10 +1597,10 @@
       <c r="C24">
         <v>999.5</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24">
         <v>527364</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24">
         <v>4269700</v>
       </c>
       <c r="F24" t="s">
@@ -1636,10 +1635,10 @@
       <c r="C25">
         <v>999.6</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25">
         <v>527364</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25">
         <v>4269700</v>
       </c>
       <c r="F25" t="s">
@@ -1674,10 +1673,10 @@
       <c r="C26">
         <v>999.7</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26">
         <v>527364</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26">
         <v>4269700</v>
       </c>
       <c r="F26" t="s">
@@ -1712,10 +1711,10 @@
       <c r="C27">
         <v>999.8</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27">
         <v>527364</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27">
         <v>4269700</v>
       </c>
       <c r="F27" t="s">
@@ -1750,10 +1749,10 @@
       <c r="C28">
         <v>999.9</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28">
         <v>527364</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28">
         <v>4269700</v>
       </c>
       <c r="F28" t="s">
@@ -1788,10 +1787,10 @@
       <c r="C29">
         <v>999.11</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29">
         <v>527364</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29">
         <v>4269700</v>
       </c>
       <c r="F29" t="s">
@@ -1858,10 +1857,10 @@
       <c r="C31">
         <v>11008</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31">
         <v>527376</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31">
         <v>4269713</v>
       </c>
       <c r="F31" t="s">
@@ -1902,10 +1901,10 @@
       <c r="C32">
         <v>11008.1</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32">
         <v>527376</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32">
         <v>4269713</v>
       </c>
       <c r="F32" t="s">
@@ -1940,10 +1939,10 @@
       <c r="C33">
         <v>11008.2</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33">
         <v>527376</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33">
         <v>4269713</v>
       </c>
       <c r="F33" t="s">
@@ -1978,10 +1977,10 @@
       <c r="C34">
         <v>11008.3</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34">
         <v>527376</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34">
         <v>4269713</v>
       </c>
       <c r="F34" t="s">
@@ -2016,10 +2015,10 @@
       <c r="C35">
         <v>11009</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35">
         <v>527432</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35">
         <v>4269646</v>
       </c>
       <c r="F35" t="s">
@@ -2092,10 +2091,10 @@
       <c r="C37">
         <v>11010</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37">
         <v>527407</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37">
         <v>4269694</v>
       </c>
       <c r="F37" t="s">
@@ -2136,10 +2135,10 @@
       <c r="C38">
         <v>11010.1</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38">
         <v>527407</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38">
         <v>4269694</v>
       </c>
       <c r="F38" t="s">
@@ -2174,10 +2173,10 @@
       <c r="C39">
         <v>999.14</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39">
         <v>527406</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39">
         <v>4269647</v>
       </c>
       <c r="F39" t="s">
@@ -2212,10 +2211,10 @@
       <c r="C40">
         <v>11011</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40">
         <v>527400</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E40">
         <v>4269649</v>
       </c>
       <c r="F40" t="s">
@@ -2256,10 +2255,10 @@
       <c r="C41">
         <v>11012</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41">
         <v>527393</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41">
         <v>4269647</v>
       </c>
       <c r="F41" t="s">
@@ -2300,10 +2299,10 @@
       <c r="C42">
         <v>11012.1</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42">
         <v>527393</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E42">
         <v>4269647</v>
       </c>
       <c r="F42" t="s">
@@ -2338,10 +2337,10 @@
       <c r="C43">
         <v>11013</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D43">
         <v>527384</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E43">
         <v>4269651</v>
       </c>
       <c r="F43" t="s">
@@ -2376,10 +2375,10 @@
       <c r="C44">
         <v>11013.1</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D44">
         <v>527384</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E44">
         <v>4269651</v>
       </c>
       <c r="F44" t="s">
@@ -2414,10 +2413,10 @@
       <c r="C45">
         <v>11013.2</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D45">
         <v>527384</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E45">
         <v>4269651</v>
       </c>
       <c r="F45" t="s">
@@ -2452,10 +2451,10 @@
       <c r="C46">
         <v>999.15</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D46">
         <v>527384</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E46">
         <v>4269651</v>
       </c>
       <c r="F46" t="s">
@@ -2490,10 +2489,10 @@
       <c r="C47">
         <v>11014</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D47">
         <v>527372</v>
       </c>
-      <c r="E47" s="2">
+      <c r="E47">
         <v>4269647</v>
       </c>
       <c r="F47" t="s">
@@ -2528,10 +2527,10 @@
       <c r="C48">
         <v>11014.1</v>
       </c>
-      <c r="D48" s="2">
+      <c r="D48">
         <v>527372</v>
       </c>
-      <c r="E48" s="2">
+      <c r="E48">
         <v>4269647</v>
       </c>
       <c r="F48" t="s">
@@ -2566,10 +2565,10 @@
       <c r="C49">
         <v>999.16</v>
       </c>
-      <c r="D49" s="2">
+      <c r="D49">
         <v>527367</v>
       </c>
-      <c r="E49" s="2">
+      <c r="E49">
         <v>4269649</v>
       </c>
       <c r="F49" t="s">
@@ -2604,10 +2603,10 @@
       <c r="C50">
         <v>11015</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D50">
         <v>527367</v>
       </c>
-      <c r="E50" s="2">
+      <c r="E50">
         <v>4269648</v>
       </c>
       <c r="F50" t="s">
@@ -2648,10 +2647,10 @@
       <c r="C51">
         <v>11016</v>
       </c>
-      <c r="D51" s="2">
+      <c r="D51">
         <v>527360</v>
       </c>
-      <c r="E51" s="2">
+      <c r="E51">
         <v>4269647</v>
       </c>
       <c r="F51" t="s">
@@ -2692,10 +2691,10 @@
       <c r="C52">
         <v>11016.1</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D52">
         <v>527360</v>
       </c>
-      <c r="E52" s="2">
+      <c r="E52">
         <v>4269647</v>
       </c>
       <c r="F52" t="s">
@@ -2730,10 +2729,10 @@
       <c r="C53">
         <v>999.17</v>
       </c>
-      <c r="D53" s="2">
+      <c r="D53">
         <v>527352</v>
       </c>
-      <c r="E53" s="2">
+      <c r="E53">
         <v>4269649</v>
       </c>
       <c r="F53" t="s">
@@ -2768,10 +2767,10 @@
       <c r="C54">
         <v>11017</v>
       </c>
-      <c r="D54" s="2">
+      <c r="D54">
         <v>527349</v>
       </c>
-      <c r="E54" s="2">
+      <c r="E54">
         <v>4269653</v>
       </c>
       <c r="F54" t="s">
@@ -2812,10 +2811,10 @@
       <c r="C55">
         <v>11017.1</v>
       </c>
-      <c r="D55" s="2">
+      <c r="D55">
         <v>527349</v>
       </c>
-      <c r="E55" s="2">
+      <c r="E55">
         <v>4269653</v>
       </c>
       <c r="F55" t="s">
@@ -2850,10 +2849,10 @@
       <c r="C56">
         <v>11018</v>
       </c>
-      <c r="D56" s="2">
+      <c r="D56">
         <v>527343</v>
       </c>
-      <c r="E56" s="2">
+      <c r="E56">
         <v>4269658</v>
       </c>
       <c r="F56" t="s">
@@ -2888,10 +2887,10 @@
       <c r="C57">
         <v>11018.1</v>
       </c>
-      <c r="D57" s="2">
+      <c r="D57">
         <v>527343</v>
       </c>
-      <c r="E57" s="2">
+      <c r="E57">
         <v>4269658</v>
       </c>
       <c r="F57" t="s">
@@ -2932,10 +2931,10 @@
       <c r="C58">
         <v>999.18</v>
       </c>
-      <c r="D58" s="2">
+      <c r="D58">
         <v>527340</v>
       </c>
-      <c r="E58" s="2">
+      <c r="E58">
         <v>4269656</v>
       </c>
       <c r="F58" t="s">
@@ -2970,10 +2969,10 @@
       <c r="C59">
         <v>11019</v>
       </c>
-      <c r="D59" s="2">
+      <c r="D59">
         <v>527331</v>
       </c>
-      <c r="E59" s="2">
+      <c r="E59">
         <v>4269653</v>
       </c>
       <c r="F59" t="s">
@@ -3014,10 +3013,10 @@
       <c r="C60">
         <v>999.19</v>
       </c>
-      <c r="D60" s="2">
+      <c r="D60">
         <v>527324</v>
       </c>
-      <c r="E60" s="2">
+      <c r="E60">
         <v>4269646</v>
       </c>
       <c r="F60" t="s">
@@ -3055,10 +3054,10 @@
       <c r="C61">
         <v>999.21</v>
       </c>
-      <c r="D61" s="2">
+      <c r="D61">
         <v>527324</v>
       </c>
-      <c r="E61" s="2">
+      <c r="E61">
         <v>4269646</v>
       </c>
       <c r="F61" t="s">
@@ -3096,10 +3095,10 @@
       <c r="C62">
         <v>999.22</v>
       </c>
-      <c r="D62" s="2">
+      <c r="D62">
         <v>527322</v>
       </c>
-      <c r="E62" s="2">
+      <c r="E62">
         <v>4269655</v>
       </c>
       <c r="F62" t="s">
@@ -3134,10 +3133,10 @@
       <c r="C63">
         <v>999.23</v>
       </c>
-      <c r="D63" s="2">
+      <c r="D63">
         <v>527323</v>
       </c>
-      <c r="E63" s="2">
+      <c r="E63">
         <v>4269661</v>
       </c>
       <c r="F63" t="s">
@@ -3172,10 +3171,10 @@
       <c r="C64">
         <v>999.24</v>
       </c>
-      <c r="D64" s="2">
+      <c r="D64">
         <v>527323</v>
       </c>
-      <c r="E64" s="2">
+      <c r="E64">
         <v>4269661</v>
       </c>
       <c r="F64" t="s">
@@ -3210,10 +3209,10 @@
       <c r="C65">
         <v>11020</v>
       </c>
-      <c r="D65" s="2">
+      <c r="D65">
         <v>527324</v>
       </c>
-      <c r="E65" s="2">
+      <c r="E65">
         <v>4269673</v>
       </c>
       <c r="F65" t="s">
@@ -3254,10 +3253,10 @@
       <c r="C66">
         <v>11020.1</v>
       </c>
-      <c r="D66" s="2">
+      <c r="D66">
         <v>527324</v>
       </c>
-      <c r="E66" s="2">
+      <c r="E66">
         <v>4269673</v>
       </c>
       <c r="F66" t="s">
@@ -3292,10 +3291,10 @@
       <c r="C67">
         <v>11020.2</v>
       </c>
-      <c r="D67" s="2">
+      <c r="D67">
         <v>527324</v>
       </c>
-      <c r="E67" s="2">
+      <c r="E67">
         <v>4269673</v>
       </c>
       <c r="F67" t="s">
@@ -3330,10 +3329,10 @@
       <c r="C68">
         <v>11021</v>
       </c>
-      <c r="D68" s="2">
+      <c r="D68">
         <v>527324</v>
       </c>
-      <c r="E68" s="2">
+      <c r="E68">
         <v>4269682</v>
       </c>
       <c r="F68" t="s">
@@ -3374,10 +3373,10 @@
       <c r="C69">
         <v>11022</v>
       </c>
-      <c r="D69" s="2">
+      <c r="D69">
         <v>527326</v>
       </c>
-      <c r="E69" s="2">
+      <c r="E69">
         <v>4269690</v>
       </c>
       <c r="F69" t="s">
@@ -3418,10 +3417,10 @@
       <c r="C70">
         <v>11022.1</v>
       </c>
-      <c r="D70" s="2">
+      <c r="D70">
         <v>527326</v>
       </c>
-      <c r="E70" s="2">
+      <c r="E70">
         <v>4269690</v>
       </c>
       <c r="F70" t="s">
@@ -3456,10 +3455,10 @@
       <c r="C71">
         <v>11022.2</v>
       </c>
-      <c r="D71" s="2">
+      <c r="D71">
         <v>527326</v>
       </c>
-      <c r="E71" s="2">
+      <c r="E71">
         <v>4269690</v>
       </c>
       <c r="F71" t="s">
@@ -3494,10 +3493,10 @@
       <c r="C72">
         <v>999.25</v>
       </c>
-      <c r="D72" s="2">
+      <c r="D72">
         <v>527326</v>
       </c>
-      <c r="E72" s="2">
+      <c r="E72">
         <v>4269702</v>
       </c>
       <c r="F72" t="s">
@@ -3532,10 +3531,10 @@
       <c r="C73">
         <v>999.26</v>
       </c>
-      <c r="D73" s="2">
+      <c r="D73">
         <v>527325</v>
       </c>
-      <c r="E73" s="2">
+      <c r="E73">
         <v>4269702</v>
       </c>
       <c r="F73" t="s">
@@ -3570,10 +3569,10 @@
       <c r="C74">
         <v>999.27</v>
       </c>
-      <c r="D74" s="2">
+      <c r="D74">
         <v>527324</v>
       </c>
-      <c r="E74" s="2">
+      <c r="E74">
         <v>4269715</v>
       </c>
       <c r="F74" t="s">
@@ -3608,10 +3607,10 @@
       <c r="C75">
         <v>11023</v>
       </c>
-      <c r="D75" s="2">
+      <c r="D75">
         <v>527324</v>
       </c>
-      <c r="E75" s="2">
+      <c r="E75">
         <v>4269716</v>
       </c>
       <c r="F75" t="s">
@@ -3652,10 +3651,10 @@
       <c r="C76">
         <v>11024</v>
       </c>
-      <c r="D76" s="2">
+      <c r="D76">
         <v>527324</v>
       </c>
-      <c r="E76" s="2">
+      <c r="E76">
         <v>4269716</v>
       </c>
       <c r="F76" t="s">
@@ -3696,10 +3695,10 @@
       <c r="C77">
         <v>11024.1</v>
       </c>
-      <c r="D77" s="2">
+      <c r="D77">
         <v>527324</v>
       </c>
-      <c r="E77" s="2">
+      <c r="E77">
         <v>4269716</v>
       </c>
       <c r="F77" t="s">
@@ -3737,10 +3736,10 @@
       <c r="C78">
         <v>11025</v>
       </c>
-      <c r="D78" s="2">
+      <c r="D78">
         <v>527321</v>
       </c>
-      <c r="E78" s="2">
+      <c r="E78">
         <v>4269744</v>
       </c>
       <c r="F78" t="s">
@@ -3784,10 +3783,10 @@
       <c r="C79">
         <v>11026</v>
       </c>
-      <c r="D79" s="2">
+      <c r="D79">
         <v>527321</v>
       </c>
-      <c r="E79" s="2">
+      <c r="E79">
         <v>4269746</v>
       </c>
       <c r="F79" t="s">
@@ -3825,10 +3824,10 @@
       <c r="C80">
         <v>11027</v>
       </c>
-      <c r="D80" s="2">
+      <c r="D80">
         <v>527325</v>
       </c>
-      <c r="E80" s="2">
+      <c r="E80">
         <v>4269746</v>
       </c>
       <c r="F80" t="s">
@@ -3866,10 +3865,10 @@
       <c r="C81">
         <v>11027.1</v>
       </c>
-      <c r="D81" s="2">
+      <c r="D81">
         <v>527325</v>
       </c>
-      <c r="E81" s="2">
+      <c r="E81">
         <v>4269746</v>
       </c>
       <c r="F81" t="s">
@@ -3904,10 +3903,10 @@
       <c r="C82">
         <v>11027.2</v>
       </c>
-      <c r="D82" s="2">
+      <c r="D82">
         <v>527325</v>
       </c>
-      <c r="E82" s="2">
+      <c r="E82">
         <v>4269746</v>
       </c>
       <c r="F82" t="s">
@@ -3942,10 +3941,10 @@
       <c r="C83">
         <v>11028</v>
       </c>
-      <c r="D83" s="2">
+      <c r="D83">
         <v>527342</v>
       </c>
-      <c r="E83" s="2">
+      <c r="E83">
         <v>4269743</v>
       </c>
       <c r="F83" t="s">
@@ -3980,10 +3979,10 @@
       <c r="C84">
         <v>11028.1</v>
       </c>
-      <c r="D84" s="2">
+      <c r="D84">
         <v>527342</v>
       </c>
-      <c r="E84" s="2">
+      <c r="E84">
         <v>4269743</v>
       </c>
       <c r="F84" t="s">
@@ -4018,10 +4017,10 @@
       <c r="C85">
         <v>11029</v>
       </c>
-      <c r="D85" s="2">
+      <c r="D85">
         <v>527344</v>
       </c>
-      <c r="E85" s="2">
+      <c r="E85">
         <v>4269744</v>
       </c>
       <c r="F85" t="s">
@@ -4062,10 +4061,10 @@
       <c r="C86">
         <v>11030</v>
       </c>
-      <c r="D86" s="2">
+      <c r="D86">
         <v>527352</v>
       </c>
-      <c r="E86" s="2">
+      <c r="E86">
         <v>4269745</v>
       </c>
       <c r="F86" t="s">
@@ -4100,10 +4099,10 @@
       <c r="C87">
         <v>999.28</v>
       </c>
-      <c r="D87" s="2">
+      <c r="D87">
         <v>527349</v>
       </c>
-      <c r="E87" s="2">
+      <c r="E87">
         <v>4269742</v>
       </c>
       <c r="F87" t="s">
@@ -4138,10 +4137,10 @@
       <c r="C88">
         <v>11031</v>
       </c>
-      <c r="D88" s="2">
+      <c r="D88">
         <v>527349</v>
       </c>
-      <c r="E88" s="2">
+      <c r="E88">
         <v>4269744</v>
       </c>
       <c r="F88" t="s">
@@ -4182,10 +4181,10 @@
       <c r="C89">
         <v>11032</v>
       </c>
-      <c r="D89" s="2">
+      <c r="D89">
         <v>527357</v>
       </c>
-      <c r="E89" s="2">
+      <c r="E89">
         <v>4269744</v>
       </c>
       <c r="F89" t="s">
@@ -4226,10 +4225,10 @@
       <c r="C90">
         <v>11032.1</v>
       </c>
-      <c r="D90" s="2">
+      <c r="D90">
         <v>527357</v>
       </c>
-      <c r="E90" s="2">
+      <c r="E90">
         <v>4269744</v>
       </c>
       <c r="F90" t="s">
@@ -4264,10 +4263,10 @@
       <c r="C91">
         <v>11033</v>
       </c>
-      <c r="D91" s="2">
+      <c r="D91">
         <v>527357</v>
       </c>
-      <c r="E91" s="2">
+      <c r="E91">
         <v>4269745</v>
       </c>
       <c r="F91" t="s">
@@ -4308,10 +4307,10 @@
       <c r="C92">
         <v>11033.1</v>
       </c>
-      <c r="D92" s="2">
+      <c r="D92">
         <v>527357</v>
       </c>
-      <c r="E92" s="2">
+      <c r="E92">
         <v>4269745</v>
       </c>
       <c r="F92" t="s">
@@ -4346,10 +4345,10 @@
       <c r="C93">
         <v>11033.2</v>
       </c>
-      <c r="D93" s="2">
+      <c r="D93">
         <v>527357</v>
       </c>
-      <c r="E93" s="2">
+      <c r="E93">
         <v>4269745</v>
       </c>
       <c r="F93" t="s">
@@ -4384,10 +4383,10 @@
       <c r="C94">
         <v>11034</v>
       </c>
-      <c r="D94" s="2">
+      <c r="D94">
         <v>527363</v>
       </c>
-      <c r="E94" s="2">
+      <c r="E94">
         <v>4269742</v>
       </c>
       <c r="F94" t="s">
@@ -4428,10 +4427,10 @@
       <c r="C95">
         <v>11034.1</v>
       </c>
-      <c r="D95" s="2">
+      <c r="D95">
         <v>527363</v>
       </c>
-      <c r="E95" s="2">
+      <c r="E95">
         <v>4269742</v>
       </c>
       <c r="F95" t="s">
@@ -4466,10 +4465,10 @@
       <c r="C96">
         <v>11034.2</v>
       </c>
-      <c r="D96" s="2">
+      <c r="D96">
         <v>527363</v>
       </c>
-      <c r="E96" s="2">
+      <c r="E96">
         <v>4269742</v>
       </c>
       <c r="F96" t="s">
@@ -4504,10 +4503,10 @@
       <c r="C97">
         <v>11034.3</v>
       </c>
-      <c r="D97" s="2">
+      <c r="D97">
         <v>527363</v>
       </c>
-      <c r="E97" s="2">
+      <c r="E97">
         <v>4269742</v>
       </c>
       <c r="F97" t="s">
@@ -4542,10 +4541,10 @@
       <c r="C98">
         <v>11034.4</v>
       </c>
-      <c r="D98" s="2">
+      <c r="D98">
         <v>527363</v>
       </c>
-      <c r="E98" s="2">
+      <c r="E98">
         <v>4269742</v>
       </c>
       <c r="F98" t="s">
@@ -4580,10 +4579,10 @@
       <c r="C99">
         <v>11034.5</v>
       </c>
-      <c r="D99" s="2">
+      <c r="D99">
         <v>527363</v>
       </c>
-      <c r="E99" s="2">
+      <c r="E99">
         <v>4269742</v>
       </c>
       <c r="F99" t="s">
@@ -4618,10 +4617,10 @@
       <c r="C100">
         <v>11034.6</v>
       </c>
-      <c r="D100" s="2">
+      <c r="D100">
         <v>527363</v>
       </c>
-      <c r="E100" s="2">
+      <c r="E100">
         <v>4269742</v>
       </c>
       <c r="F100" t="s">
@@ -4656,10 +4655,10 @@
       <c r="C101">
         <v>11034.7</v>
       </c>
-      <c r="D101" s="2">
+      <c r="D101">
         <v>527363</v>
       </c>
-      <c r="E101" s="2">
+      <c r="E101">
         <v>4269742</v>
       </c>
       <c r="F101" t="s">
@@ -4697,10 +4696,10 @@
       <c r="C102">
         <v>999.29</v>
       </c>
-      <c r="D102" s="2">
+      <c r="D102">
         <v>527377</v>
       </c>
-      <c r="E102" s="2">
+      <c r="E102">
         <v>4269741</v>
       </c>
       <c r="F102" t="s">
@@ -4735,10 +4734,10 @@
       <c r="C103">
         <v>999.31</v>
       </c>
-      <c r="D103" s="2">
+      <c r="D103">
         <v>527376</v>
       </c>
-      <c r="E103" s="2">
+      <c r="E103">
         <v>4269743</v>
       </c>
       <c r="F103" t="s">
@@ -4773,10 +4772,10 @@
       <c r="C104">
         <v>11035</v>
       </c>
-      <c r="D104" s="2">
+      <c r="D104">
         <v>527371</v>
       </c>
-      <c r="E104" s="2">
+      <c r="E104">
         <v>4269746</v>
       </c>
       <c r="F104" t="s">
@@ -4817,10 +4816,10 @@
       <c r="C105">
         <v>11035.1</v>
       </c>
-      <c r="D105" s="2">
+      <c r="D105">
         <v>527371</v>
       </c>
-      <c r="E105" s="2">
+      <c r="E105">
         <v>4269746</v>
       </c>
       <c r="F105" t="s">
@@ -4855,10 +4854,10 @@
       <c r="C106">
         <v>999.32</v>
       </c>
-      <c r="D106" s="2">
+      <c r="D106">
         <v>527389</v>
       </c>
-      <c r="E106" s="2">
+      <c r="E106">
         <v>4269745</v>
       </c>
       <c r="F106" t="s">
@@ -4896,10 +4895,10 @@
       <c r="C107">
         <v>11037</v>
       </c>
-      <c r="D107" s="2">
+      <c r="D107">
         <v>527389</v>
       </c>
-      <c r="E107" s="2">
+      <c r="E107">
         <v>4269745</v>
       </c>
       <c r="F107" t="s">
@@ -4940,10 +4939,10 @@
       <c r="C108">
         <v>11037.1</v>
       </c>
-      <c r="D108" s="2">
+      <c r="D108">
         <v>527389</v>
       </c>
-      <c r="E108" s="2">
+      <c r="E108">
         <v>4269745</v>
       </c>
       <c r="F108" t="s">
@@ -4978,10 +4977,10 @@
       <c r="C109">
         <v>999.33</v>
       </c>
-      <c r="D109" s="2">
+      <c r="D109">
         <v>527398</v>
       </c>
-      <c r="E109" s="2">
+      <c r="E109">
         <v>4269745</v>
       </c>
       <c r="F109" t="s">
@@ -5016,10 +5015,10 @@
       <c r="C110">
         <v>11038</v>
       </c>
-      <c r="D110" s="2">
+      <c r="D110">
         <v>527404</v>
       </c>
-      <c r="E110" s="2">
+      <c r="E110">
         <v>4269745</v>
       </c>
       <c r="F110" t="s">
@@ -5060,10 +5059,10 @@
       <c r="C111">
         <v>11038.1</v>
       </c>
-      <c r="D111" s="2">
+      <c r="D111">
         <v>527404</v>
       </c>
-      <c r="E111" s="2">
+      <c r="E111">
         <v>4269745</v>
       </c>
       <c r="F111" t="s">
@@ -5098,10 +5097,10 @@
       <c r="C112">
         <v>11039</v>
       </c>
-      <c r="D112" s="2">
+      <c r="D112">
         <v>527406</v>
       </c>
-      <c r="E112" s="2">
+      <c r="E112">
         <v>4269744</v>
       </c>
       <c r="F112" t="s">
@@ -5142,10 +5141,10 @@
       <c r="C113">
         <v>11039.1</v>
       </c>
-      <c r="D113" s="2">
+      <c r="D113">
         <v>527406</v>
       </c>
-      <c r="E113" s="2">
+      <c r="E113">
         <v>4269744</v>
       </c>
       <c r="F113" t="s">
@@ -5180,10 +5179,10 @@
       <c r="C114">
         <v>11040</v>
       </c>
-      <c r="D114" s="2">
+      <c r="D114">
         <v>527411</v>
       </c>
-      <c r="E114" s="2">
+      <c r="E114">
         <v>4269747</v>
       </c>
       <c r="F114" t="s">
@@ -5224,10 +5223,10 @@
       <c r="C115">
         <v>11040.1</v>
       </c>
-      <c r="D115" s="2">
+      <c r="D115">
         <v>527411</v>
       </c>
-      <c r="E115" s="2">
+      <c r="E115">
         <v>4269747</v>
       </c>
       <c r="F115" t="s">
@@ -5262,10 +5261,10 @@
       <c r="C116">
         <v>11040.2</v>
       </c>
-      <c r="D116" s="2">
+      <c r="D116">
         <v>527411</v>
       </c>
-      <c r="E116" s="2">
+      <c r="E116">
         <v>4269747</v>
       </c>
       <c r="F116" t="s">
@@ -5300,10 +5299,10 @@
       <c r="C117">
         <v>11041</v>
       </c>
-      <c r="D117" s="2">
+      <c r="D117">
         <v>527423</v>
       </c>
-      <c r="E117" s="2">
+      <c r="E117">
         <v>4269743</v>
       </c>
       <c r="F117" t="s">
@@ -5344,10 +5343,10 @@
       <c r="C118">
         <v>11042</v>
       </c>
-      <c r="D118" s="2">
+      <c r="D118">
         <v>527422</v>
       </c>
-      <c r="E118" s="2">
+      <c r="E118">
         <v>4269720</v>
       </c>
       <c r="F118" t="s">
@@ -5388,10 +5387,10 @@
       <c r="C119">
         <v>11042.1</v>
       </c>
-      <c r="D119" s="2">
+      <c r="D119">
         <v>527422</v>
       </c>
-      <c r="E119" s="2">
+      <c r="E119">
         <v>4269720</v>
       </c>
       <c r="F119" t="s">
@@ -5426,10 +5425,10 @@
       <c r="C120">
         <v>999.34</v>
       </c>
-      <c r="D120" s="2">
+      <c r="D120">
         <v>527425</v>
       </c>
-      <c r="E120" s="2">
+      <c r="E120">
         <v>4269703</v>
       </c>
       <c r="F120" t="s">
@@ -5464,10 +5463,10 @@
       <c r="C121">
         <v>999.35</v>
       </c>
-      <c r="D121" s="2">
+      <c r="D121">
         <v>527424</v>
       </c>
-      <c r="E121" s="2">
+      <c r="E121">
         <v>4269704</v>
       </c>
       <c r="F121" t="s">
@@ -5502,10 +5501,10 @@
       <c r="C122">
         <v>11043</v>
       </c>
-      <c r="D122" s="2">
+      <c r="D122">
         <v>527422</v>
       </c>
-      <c r="E122" s="2">
+      <c r="E122">
         <v>4269694</v>
       </c>
       <c r="F122" t="s">
@@ -5546,10 +5545,10 @@
       <c r="C123">
         <v>999.36</v>
       </c>
-      <c r="D123" s="2">
+      <c r="D123">
         <v>527423</v>
       </c>
-      <c r="E123" s="2">
+      <c r="E123">
         <v>4269691</v>
       </c>
       <c r="F123" t="s">
@@ -5584,10 +5583,10 @@
       <c r="C124">
         <v>11044</v>
       </c>
-      <c r="D124" s="2">
+      <c r="D124">
         <v>527426</v>
       </c>
-      <c r="E124" s="2">
+      <c r="E124">
         <v>4269684</v>
       </c>
       <c r="F124" t="s">
@@ -5622,10 +5621,10 @@
       <c r="C125">
         <v>11045</v>
       </c>
-      <c r="D125" s="2">
+      <c r="D125">
         <v>527420</v>
       </c>
-      <c r="E125" s="2">
+      <c r="E125">
         <v>4269676</v>
       </c>
       <c r="F125" t="s">
@@ -5666,10 +5665,10 @@
       <c r="C126">
         <v>11045.1</v>
       </c>
-      <c r="D126" s="2">
+      <c r="D126">
         <v>527420</v>
       </c>
-      <c r="E126" s="2">
+      <c r="E126">
         <v>4269676</v>
       </c>
       <c r="F126" t="s">
@@ -5704,10 +5703,10 @@
       <c r="C127">
         <v>11045.2</v>
       </c>
-      <c r="D127" s="2">
+      <c r="D127">
         <v>527420</v>
       </c>
-      <c r="E127" s="2">
+      <c r="E127">
         <v>4269676</v>
       </c>
       <c r="F127" t="s">
@@ -5742,10 +5741,10 @@
       <c r="C128">
         <v>11045.3</v>
       </c>
-      <c r="D128" s="2">
+      <c r="D128">
         <v>527420</v>
       </c>
-      <c r="E128" s="2">
+      <c r="E128">
         <v>4269676</v>
       </c>
       <c r="F128" t="s">
@@ -5780,10 +5779,10 @@
       <c r="C129">
         <v>11046</v>
       </c>
-      <c r="D129" s="2">
+      <c r="D129">
         <v>527422</v>
       </c>
-      <c r="E129" s="2">
+      <c r="E129">
         <v>4269678</v>
       </c>
       <c r="F129" t="s">
@@ -5824,10 +5823,10 @@
       <c r="C130">
         <v>11046.1</v>
       </c>
-      <c r="D130" s="2">
+      <c r="D130">
         <v>527422</v>
       </c>
-      <c r="E130" s="2">
+      <c r="E130">
         <v>4267678</v>
       </c>
       <c r="F130" t="s">
@@ -5862,10 +5861,10 @@
       <c r="C131">
         <v>11047</v>
       </c>
-      <c r="D131" s="2">
+      <c r="D131">
         <v>527421</v>
       </c>
-      <c r="E131" s="2">
+      <c r="E131">
         <v>4269675</v>
       </c>
       <c r="F131" t="s">
@@ -5906,10 +5905,10 @@
       <c r="C132">
         <v>11048</v>
       </c>
-      <c r="D132" s="2">
+      <c r="D132">
         <v>527422</v>
       </c>
-      <c r="E132" s="2">
+      <c r="E132">
         <v>4269674</v>
       </c>
       <c r="F132" t="s">
@@ -5950,10 +5949,10 @@
       <c r="C133">
         <v>11048.1</v>
       </c>
-      <c r="D133" s="2">
+      <c r="D133">
         <v>527422</v>
       </c>
-      <c r="E133" s="2">
+      <c r="E133">
         <v>4269674</v>
       </c>
       <c r="F133" t="s">
@@ -5988,10 +5987,10 @@
       <c r="C134">
         <v>11049</v>
       </c>
-      <c r="D134" s="2">
+      <c r="D134">
         <v>527423</v>
       </c>
-      <c r="E134" s="2">
+      <c r="E134">
         <v>4269662</v>
       </c>
       <c r="F134" t="s">
@@ -6032,10 +6031,10 @@
       <c r="C135">
         <v>11050</v>
       </c>
-      <c r="D135" s="2">
+      <c r="D135">
         <v>527329</v>
       </c>
-      <c r="E135" s="2">
+      <c r="E135">
         <v>4269718</v>
       </c>
       <c r="F135" t="s">
@@ -6076,10 +6075,10 @@
       <c r="C136">
         <v>11051</v>
       </c>
-      <c r="D136" s="2">
+      <c r="D136">
         <v>527329</v>
       </c>
-      <c r="E136" s="2">
+      <c r="E136">
         <v>4269710</v>
       </c>
       <c r="F136" t="s">
@@ -6120,10 +6119,10 @@
       <c r="C137">
         <v>11051.1</v>
       </c>
-      <c r="D137" s="2">
+      <c r="D137">
         <v>527329</v>
       </c>
-      <c r="E137" s="2">
+      <c r="E137">
         <v>4269710</v>
       </c>
       <c r="F137" t="s">
@@ -6158,10 +6157,10 @@
       <c r="C138">
         <v>11051.2</v>
       </c>
-      <c r="D138" s="2">
+      <c r="D138">
         <v>527329</v>
       </c>
-      <c r="E138" s="2">
+      <c r="E138">
         <v>4269710</v>
       </c>
       <c r="F138" t="s">
@@ -6196,10 +6195,10 @@
       <c r="C139">
         <v>999.37</v>
       </c>
-      <c r="D139" s="2">
+      <c r="D139">
         <v>527329</v>
       </c>
-      <c r="E139" s="2">
+      <c r="E139">
         <v>4269707</v>
       </c>
       <c r="F139" t="s">
@@ -6234,10 +6233,10 @@
       <c r="C140">
         <v>11052</v>
       </c>
-      <c r="D140" s="2">
+      <c r="D140">
         <v>527329</v>
       </c>
-      <c r="E140" s="2">
+      <c r="E140">
         <v>4269707</v>
       </c>
       <c r="F140" t="s">
@@ -6278,10 +6277,10 @@
       <c r="C141">
         <v>11053</v>
       </c>
-      <c r="D141" s="2">
+      <c r="D141">
         <v>527331</v>
       </c>
-      <c r="E141" s="2">
+      <c r="E141">
         <v>4269700</v>
       </c>
       <c r="F141" t="s">
@@ -6322,10 +6321,10 @@
       <c r="C142">
         <v>11054</v>
       </c>
-      <c r="D142" s="2">
+      <c r="D142">
         <v>527331</v>
       </c>
-      <c r="E142" s="2">
+      <c r="E142">
         <v>4269701</v>
       </c>
       <c r="F142" t="s">
@@ -6366,10 +6365,10 @@
       <c r="C143">
         <v>11054.1</v>
       </c>
-      <c r="D143" s="2">
+      <c r="D143">
         <v>527331</v>
       </c>
-      <c r="E143" s="2">
+      <c r="E143">
         <v>4269702</v>
       </c>
       <c r="F143" t="s">
@@ -6404,10 +6403,10 @@
       <c r="C144">
         <v>999.38</v>
       </c>
-      <c r="D144" s="2">
+      <c r="D144">
         <v>527335</v>
       </c>
-      <c r="E144" s="2">
+      <c r="E144">
         <v>4269694</v>
       </c>
       <c r="F144" t="s">
@@ -6442,10 +6441,10 @@
       <c r="C145">
         <v>11055</v>
       </c>
-      <c r="D145" s="2">
+      <c r="D145">
         <v>527341</v>
       </c>
-      <c r="E145" s="2">
+      <c r="E145">
         <v>4269694</v>
       </c>
       <c r="F145" t="s">
@@ -6486,10 +6485,10 @@
       <c r="C146">
         <v>11055.1</v>
       </c>
-      <c r="D146" s="2">
+      <c r="D146">
         <v>527341</v>
       </c>
-      <c r="E146" s="2">
+      <c r="E146">
         <v>4269694</v>
       </c>
       <c r="F146" t="s">
@@ -6524,10 +6523,10 @@
       <c r="C147">
         <v>11055.2</v>
       </c>
-      <c r="D147" s="2">
+      <c r="D147">
         <v>527341</v>
       </c>
-      <c r="E147" s="2">
+      <c r="E147">
         <v>4269694</v>
       </c>
       <c r="F147" t="s">
@@ -6562,10 +6561,10 @@
       <c r="C148">
         <v>11055.3</v>
       </c>
-      <c r="D148" s="2">
+      <c r="D148">
         <v>527341</v>
       </c>
-      <c r="E148" s="2">
+      <c r="E148">
         <v>4269694</v>
       </c>
       <c r="F148" t="s">
@@ -6600,10 +6599,10 @@
       <c r="C149">
         <v>11055.4</v>
       </c>
-      <c r="D149" s="2">
+      <c r="D149">
         <v>527341</v>
       </c>
-      <c r="E149" s="2">
+      <c r="E149">
         <v>4269694</v>
       </c>
       <c r="F149" t="s">
@@ -6638,10 +6637,10 @@
       <c r="C150">
         <v>11055.5</v>
       </c>
-      <c r="D150" s="2">
+      <c r="D150">
         <v>527341</v>
       </c>
-      <c r="E150" s="2">
+      <c r="E150">
         <v>4269694</v>
       </c>
       <c r="F150" t="s">
@@ -6676,10 +6675,10 @@
       <c r="C151">
         <v>11055.6</v>
       </c>
-      <c r="D151" s="2">
+      <c r="D151">
         <v>527341</v>
       </c>
-      <c r="E151" s="2">
+      <c r="E151">
         <v>4269694</v>
       </c>
       <c r="F151" t="s">
@@ -6714,10 +6713,10 @@
       <c r="C152">
         <v>11055.7</v>
       </c>
-      <c r="D152" s="2">
+      <c r="D152">
         <v>527341</v>
       </c>
-      <c r="E152" s="2">
+      <c r="E152">
         <v>4269694</v>
       </c>
       <c r="F152" t="s">
@@ -6752,10 +6751,10 @@
       <c r="C153">
         <v>11055.8</v>
       </c>
-      <c r="D153" s="2">
+      <c r="D153">
         <v>527341</v>
       </c>
-      <c r="E153" s="2">
+      <c r="E153">
         <v>4269694</v>
       </c>
       <c r="F153" t="s">
@@ -6790,10 +6789,10 @@
       <c r="C154">
         <v>999.39</v>
       </c>
-      <c r="D154" s="2">
+      <c r="D154">
         <v>527329</v>
       </c>
-      <c r="E154" s="2">
+      <c r="E154">
         <v>4269682</v>
       </c>
       <c r="F154" t="s">
@@ -6828,10 +6827,10 @@
       <c r="C155">
         <v>999.41</v>
       </c>
-      <c r="D155" s="2">
+      <c r="D155">
         <v>527329</v>
       </c>
-      <c r="E155" s="2">
+      <c r="E155">
         <v>4269682</v>
       </c>
       <c r="F155" t="s">
@@ -6866,10 +6865,10 @@
       <c r="C156">
         <v>11056</v>
       </c>
-      <c r="D156" s="2">
+      <c r="D156">
         <v>527328</v>
       </c>
-      <c r="E156" s="2">
+      <c r="E156">
         <v>4269682</v>
       </c>
       <c r="F156" t="s">
@@ -6910,10 +6909,10 @@
       <c r="C157">
         <v>11056.1</v>
       </c>
-      <c r="D157" s="2">
+      <c r="D157">
         <v>527328</v>
       </c>
-      <c r="E157" s="2">
+      <c r="E157">
         <v>4269682</v>
       </c>
       <c r="F157" t="s">
@@ -6948,10 +6947,10 @@
       <c r="C158">
         <v>11056.2</v>
       </c>
-      <c r="D158" s="2">
+      <c r="D158">
         <v>527328</v>
       </c>
-      <c r="E158" s="2">
+      <c r="E158">
         <v>4269682</v>
       </c>
       <c r="F158" t="s">
@@ -6986,10 +6985,10 @@
       <c r="C159">
         <v>999.42</v>
       </c>
-      <c r="D159" s="2">
+      <c r="D159">
         <v>527324</v>
       </c>
-      <c r="E159" s="2">
+      <c r="E159">
         <v>4269659</v>
       </c>
       <c r="F159" t="s">
@@ -7024,10 +7023,10 @@
       <c r="C160">
         <v>11057</v>
       </c>
-      <c r="D160" s="2">
+      <c r="D160">
         <v>527324</v>
       </c>
-      <c r="E160" s="2">
+      <c r="E160">
         <v>4269659</v>
       </c>
       <c r="F160" t="s">
@@ -7068,10 +7067,10 @@
       <c r="C161">
         <v>999.43</v>
       </c>
-      <c r="D161" s="2">
+      <c r="D161">
         <v>527319</v>
       </c>
-      <c r="E161" s="2">
+      <c r="E161">
         <v>4269654</v>
       </c>
       <c r="F161" t="s">
@@ -7106,10 +7105,10 @@
       <c r="C162">
         <v>11058</v>
       </c>
-      <c r="D162" s="2">
+      <c r="D162">
         <v>527331</v>
       </c>
-      <c r="E162" s="2">
+      <c r="E162">
         <v>4269658</v>
       </c>
       <c r="F162" t="s">
@@ -7150,10 +7149,10 @@
       <c r="C163">
         <v>11058.1</v>
       </c>
-      <c r="D163" s="2">
+      <c r="D163">
         <v>527331</v>
       </c>
-      <c r="E163" s="2">
+      <c r="E163">
         <v>4269658</v>
       </c>
       <c r="F163" t="s">
@@ -7188,10 +7187,10 @@
       <c r="C164">
         <v>11058.2</v>
       </c>
-      <c r="D164" s="2">
+      <c r="D164">
         <v>527331</v>
       </c>
-      <c r="E164" s="2">
+      <c r="E164">
         <v>4269658</v>
       </c>
       <c r="F164" t="s">
@@ -7226,10 +7225,10 @@
       <c r="C165">
         <v>11058.3</v>
       </c>
-      <c r="D165" s="2">
+      <c r="D165">
         <v>527331</v>
       </c>
-      <c r="E165" s="2">
+      <c r="E165">
         <v>4269658</v>
       </c>
       <c r="F165" t="s">
@@ -7264,10 +7263,10 @@
       <c r="C166">
         <v>999.44</v>
       </c>
-      <c r="D166" s="2">
+      <c r="D166">
         <v>527332</v>
       </c>
-      <c r="E166" s="2">
+      <c r="E166">
         <v>4269670</v>
       </c>
       <c r="F166" t="s">
@@ -7302,10 +7301,10 @@
       <c r="C167">
         <v>11059</v>
       </c>
-      <c r="D167" s="2">
+      <c r="D167">
         <v>527332</v>
       </c>
-      <c r="E167" s="2">
+      <c r="E167">
         <v>4269670</v>
       </c>
       <c r="F167" t="s">
@@ -7346,10 +7345,10 @@
       <c r="C168">
         <v>11060</v>
       </c>
-      <c r="D168" s="2">
+      <c r="D168">
         <v>527340</v>
       </c>
-      <c r="E168" s="2">
+      <c r="E168">
         <v>4269670</v>
       </c>
       <c r="F168" t="s">
@@ -7390,10 +7389,10 @@
       <c r="C169">
         <v>11061</v>
       </c>
-      <c r="D169" s="2">
+      <c r="D169">
         <v>527343</v>
       </c>
-      <c r="E169" s="2">
+      <c r="E169">
         <v>4269672</v>
       </c>
       <c r="F169" t="s">
@@ -7434,10 +7433,10 @@
       <c r="C170">
         <v>11062</v>
       </c>
-      <c r="D170" s="2">
+      <c r="D170">
         <v>527344</v>
       </c>
-      <c r="E170" s="2">
+      <c r="E170">
         <v>4269671</v>
       </c>
       <c r="F170" t="s">
@@ -7478,10 +7477,10 @@
       <c r="C171">
         <v>11063</v>
       </c>
-      <c r="D171" s="2">
+      <c r="D171">
         <v>527349</v>
       </c>
-      <c r="E171" s="2">
+      <c r="E171">
         <v>4269652</v>
       </c>
       <c r="F171" t="s">
@@ -7522,10 +7521,10 @@
       <c r="C172">
         <v>11063.1</v>
       </c>
-      <c r="D172" s="2">
+      <c r="D172">
         <v>527349</v>
       </c>
-      <c r="E172" s="2">
+      <c r="E172">
         <v>4269652</v>
       </c>
       <c r="F172" t="s">
@@ -7560,10 +7559,10 @@
       <c r="C173">
         <v>11064</v>
       </c>
-      <c r="D173" s="2">
+      <c r="D173">
         <v>527349</v>
       </c>
-      <c r="E173" s="2">
+      <c r="E173">
         <v>4269653</v>
       </c>
       <c r="F173" t="s">
@@ -7604,10 +7603,10 @@
       <c r="C174">
         <v>11066</v>
       </c>
-      <c r="D174" s="2">
+      <c r="D174">
         <v>527406</v>
       </c>
-      <c r="E174" s="2">
+      <c r="E174">
         <v>4269657</v>
       </c>
       <c r="F174" t="s">
@@ -7651,10 +7650,10 @@
       <c r="C175">
         <v>11066.1</v>
       </c>
-      <c r="D175" s="2">
+      <c r="D175">
         <v>527406</v>
       </c>
-      <c r="E175" s="2">
+      <c r="E175">
         <v>4269657</v>
       </c>
       <c r="F175" t="s">
@@ -7689,10 +7688,10 @@
       <c r="C176">
         <v>11067</v>
       </c>
-      <c r="D176" s="2">
+      <c r="D176">
         <v>527410</v>
       </c>
-      <c r="E176" s="2">
+      <c r="E176">
         <v>4269658</v>
       </c>
       <c r="F176" t="s">
@@ -7733,10 +7732,10 @@
       <c r="C177">
         <v>11067.1</v>
       </c>
-      <c r="D177" s="2">
+      <c r="D177">
         <v>527410</v>
       </c>
-      <c r="E177" s="2">
+      <c r="E177">
         <v>4269658</v>
       </c>
       <c r="F177" t="s">
@@ -7771,10 +7770,10 @@
       <c r="C178">
         <v>999.45</v>
       </c>
-      <c r="D178" s="2">
+      <c r="D178">
         <v>527409</v>
       </c>
-      <c r="E178" s="2">
+      <c r="E178">
         <v>4269657</v>
       </c>
       <c r="F178" t="s">
@@ -7809,10 +7808,10 @@
       <c r="C179">
         <v>11068</v>
       </c>
-      <c r="D179" s="2">
+      <c r="D179">
         <v>527398</v>
       </c>
-      <c r="E179" s="2">
+      <c r="E179">
         <v>4269657</v>
       </c>
       <c r="F179" t="s">
@@ -7853,10 +7852,10 @@
       <c r="C180">
         <v>11069</v>
       </c>
-      <c r="D180" s="2">
+      <c r="D180">
         <v>527398</v>
       </c>
-      <c r="E180" s="2">
+      <c r="E180">
         <v>4269654</v>
       </c>
       <c r="F180" t="s">
@@ -7897,10 +7896,10 @@
       <c r="C181">
         <v>11069.1</v>
       </c>
-      <c r="D181" s="2">
+      <c r="D181">
         <v>527398</v>
       </c>
-      <c r="E181" s="2">
+      <c r="E181">
         <v>4269654</v>
       </c>
       <c r="F181" t="s">
@@ -7938,10 +7937,10 @@
       <c r="C182">
         <v>11070</v>
       </c>
-      <c r="D182" s="2">
+      <c r="D182">
         <v>527388</v>
       </c>
-      <c r="E182" s="2">
+      <c r="E182">
         <v>4269647</v>
       </c>
       <c r="F182" t="s">
@@ -7985,10 +7984,10 @@
       <c r="C183">
         <v>11070.1</v>
       </c>
-      <c r="D183" s="2">
+      <c r="D183">
         <v>527388</v>
       </c>
-      <c r="E183" s="2">
+      <c r="E183">
         <v>4269647</v>
       </c>
       <c r="F183" t="s">
@@ -8023,10 +8022,10 @@
       <c r="C184">
         <v>999.46</v>
       </c>
-      <c r="D184" s="2">
+      <c r="D184">
         <v>527385</v>
       </c>
-      <c r="E184" s="2">
+      <c r="E184">
         <v>4269662</v>
       </c>
       <c r="F184" t="s">
@@ -8064,10 +8063,10 @@
       <c r="C185">
         <v>999.47</v>
       </c>
-      <c r="D185" s="2">
+      <c r="D185">
         <v>527385</v>
       </c>
-      <c r="E185" s="2">
+      <c r="E185">
         <v>4269662</v>
       </c>
       <c r="F185" t="s">
@@ -8105,10 +8104,10 @@
       <c r="C186">
         <v>999.48</v>
       </c>
-      <c r="D186" s="2">
+      <c r="D186">
         <v>527385</v>
       </c>
-      <c r="E186" s="2">
+      <c r="E186">
         <v>4269662</v>
       </c>
       <c r="F186" t="s">
@@ -8146,10 +8145,10 @@
       <c r="C187">
         <v>11071</v>
       </c>
-      <c r="D187" s="2">
+      <c r="D187">
         <v>527384</v>
       </c>
-      <c r="E187" s="2">
+      <c r="E187">
         <v>4269659</v>
       </c>
       <c r="F187" t="s">
@@ -8190,10 +8189,10 @@
       <c r="C188">
         <v>11071.1</v>
       </c>
-      <c r="D188" s="2">
+      <c r="D188">
         <v>527384</v>
       </c>
-      <c r="E188" s="2">
+      <c r="E188">
         <v>4269659</v>
       </c>
       <c r="F188" t="s">
@@ -8228,10 +8227,10 @@
       <c r="C189">
         <v>11071.2</v>
       </c>
-      <c r="D189" s="2">
+      <c r="D189">
         <v>527384</v>
       </c>
-      <c r="E189" s="2">
+      <c r="E189">
         <v>4269659</v>
       </c>
       <c r="F189" t="s">
@@ -8266,10 +8265,10 @@
       <c r="C190">
         <v>11072</v>
       </c>
-      <c r="D190" s="2">
+      <c r="D190">
         <v>527380</v>
       </c>
-      <c r="E190" s="2">
+      <c r="E190">
         <v>4269655</v>
       </c>
       <c r="F190" t="s">
@@ -8310,10 +8309,10 @@
       <c r="C191">
         <v>999.49</v>
       </c>
-      <c r="D191" s="2">
+      <c r="D191">
         <v>527378</v>
       </c>
-      <c r="E191" s="2">
+      <c r="E191">
         <v>4269662</v>
       </c>
       <c r="F191" t="s">
@@ -8351,10 +8350,10 @@
       <c r="C192">
         <v>999.51</v>
       </c>
-      <c r="D192" s="2">
+      <c r="D192">
         <v>527377</v>
       </c>
-      <c r="E192" s="2">
+      <c r="E192">
         <v>4269661</v>
       </c>
       <c r="F192" t="s">
@@ -8389,10 +8388,10 @@
       <c r="C193">
         <v>11073</v>
       </c>
-      <c r="D193" s="2">
+      <c r="D193">
         <v>527377</v>
       </c>
-      <c r="E193" s="2">
+      <c r="E193">
         <v>4269660</v>
       </c>
       <c r="F193" t="s">
@@ -8433,10 +8432,10 @@
       <c r="C194">
         <v>999.52</v>
       </c>
-      <c r="D194" s="2">
+      <c r="D194">
         <v>527375</v>
       </c>
-      <c r="E194" s="2">
+      <c r="E194">
         <v>4269672</v>
       </c>
       <c r="F194" t="s">
@@ -8471,10 +8470,10 @@
       <c r="C195">
         <v>999.53</v>
       </c>
-      <c r="D195" s="2">
+      <c r="D195">
         <v>527373</v>
       </c>
-      <c r="E195" s="2">
+      <c r="E195">
         <v>4269673</v>
       </c>
       <c r="F195" t="s">
@@ -8509,10 +8508,10 @@
       <c r="C196">
         <v>11074</v>
       </c>
-      <c r="D196" s="2">
+      <c r="D196">
         <v>527371</v>
       </c>
-      <c r="E196" s="2">
+      <c r="E196">
         <v>4269656</v>
       </c>
       <c r="F196" t="s">
@@ -8553,10 +8552,10 @@
       <c r="C197">
         <v>11074.1</v>
       </c>
-      <c r="D197" s="2">
+      <c r="D197">
         <v>527371</v>
       </c>
-      <c r="E197" s="2">
+      <c r="E197">
         <v>4269656</v>
       </c>
       <c r="F197" t="s">
@@ -8591,10 +8590,10 @@
       <c r="C198">
         <v>999.54</v>
       </c>
-      <c r="D198" s="2">
+      <c r="D198">
         <v>527369</v>
       </c>
-      <c r="E198" s="2">
+      <c r="E198">
         <v>4269658</v>
       </c>
       <c r="F198" t="s">
@@ -8629,10 +8628,10 @@
       <c r="C199">
         <v>11075</v>
       </c>
-      <c r="D199" s="2">
+      <c r="D199">
         <v>527369</v>
       </c>
-      <c r="E199" s="2">
+      <c r="E199">
         <v>4269658</v>
       </c>
       <c r="F199" t="s">
@@ -8673,10 +8672,10 @@
       <c r="C200">
         <v>11076</v>
       </c>
-      <c r="D200" s="2">
+      <c r="D200">
         <v>527367</v>
       </c>
-      <c r="E200" s="2">
+      <c r="E200">
         <v>4269657</v>
       </c>
       <c r="F200" t="s">
@@ -8717,10 +8716,10 @@
       <c r="C201">
         <v>11076.1</v>
       </c>
-      <c r="D201" s="2">
+      <c r="D201">
         <v>527367</v>
       </c>
-      <c r="E201" s="2">
+      <c r="E201">
         <v>4269657</v>
       </c>
       <c r="F201" t="s">
@@ -8755,10 +8754,10 @@
       <c r="C202">
         <v>11077</v>
       </c>
-      <c r="D202" s="2">
+      <c r="D202">
         <v>527359</v>
       </c>
-      <c r="E202" s="2">
+      <c r="E202">
         <v>4269656</v>
       </c>
       <c r="F202" t="s">
@@ -8799,10 +8798,10 @@
       <c r="C203">
         <v>11077.1</v>
       </c>
-      <c r="D203" s="2">
+      <c r="D203">
         <v>527359</v>
       </c>
-      <c r="E203" s="2">
+      <c r="E203">
         <v>4269656</v>
       </c>
       <c r="F203" t="s">
@@ -8837,10 +8836,10 @@
       <c r="C204">
         <v>11078</v>
       </c>
-      <c r="D204" s="2">
+      <c r="D204">
         <v>527357</v>
       </c>
-      <c r="E204" s="2">
+      <c r="E204">
         <v>4269658</v>
       </c>
       <c r="F204" t="s">
@@ -8881,10 +8880,10 @@
       <c r="C205">
         <v>11078.1</v>
       </c>
-      <c r="D205" s="2">
+      <c r="D205">
         <v>527357</v>
       </c>
-      <c r="E205" s="2">
+      <c r="E205">
         <v>4269658</v>
       </c>
       <c r="F205" t="s">
@@ -8919,10 +8918,10 @@
       <c r="C206">
         <v>999.55</v>
       </c>
-      <c r="D206" s="2">
+      <c r="D206">
         <v>527360</v>
       </c>
-      <c r="E206" s="2">
+      <c r="E206">
         <v>4269662</v>
       </c>
       <c r="F206" t="s">
@@ -8957,10 +8956,10 @@
       <c r="C207">
         <v>999.56</v>
       </c>
-      <c r="D207" s="2">
+      <c r="D207">
         <v>527360</v>
       </c>
-      <c r="E207" s="2">
+      <c r="E207">
         <v>4269662</v>
       </c>
       <c r="F207" t="s">
@@ -8995,10 +8994,10 @@
       <c r="C208">
         <v>999.57</v>
       </c>
-      <c r="D208" s="2">
+      <c r="D208">
         <v>527362</v>
       </c>
-      <c r="E208" s="2">
+      <c r="E208">
         <v>4269667</v>
       </c>
       <c r="F208" t="s">
@@ -9036,10 +9035,10 @@
       <c r="C209">
         <v>999.58</v>
       </c>
-      <c r="D209" s="2">
+      <c r="D209">
         <v>527362</v>
       </c>
-      <c r="E209" s="2">
+      <c r="E209">
         <v>4269667</v>
       </c>
       <c r="F209" t="s">
@@ -9077,10 +9076,10 @@
       <c r="C210">
         <v>999.59</v>
       </c>
-      <c r="D210" s="2">
+      <c r="D210">
         <v>527362</v>
       </c>
-      <c r="E210" s="2">
+      <c r="E210">
         <v>4269667</v>
       </c>
       <c r="F210" t="s">
@@ -9118,10 +9117,10 @@
       <c r="C211">
         <v>11079</v>
       </c>
-      <c r="D211" s="2">
+      <c r="D211">
         <v>527349</v>
       </c>
-      <c r="E211" s="2">
+      <c r="E211">
         <v>4269675</v>
       </c>
       <c r="F211" t="s">
@@ -9165,10 +9164,10 @@
       <c r="C212">
         <v>11079.1</v>
       </c>
-      <c r="D212" s="2">
+      <c r="D212">
         <v>527349</v>
       </c>
-      <c r="E212" s="2">
+      <c r="E212">
         <v>4269675</v>
       </c>
       <c r="F212" t="s">
@@ -9203,10 +9202,10 @@
       <c r="C213">
         <v>11079.2</v>
       </c>
-      <c r="D213" s="2">
+      <c r="D213">
         <v>527349</v>
       </c>
-      <c r="E213" s="2">
+      <c r="E213">
         <v>4269675</v>
       </c>
       <c r="F213" t="s">
@@ -9241,10 +9240,10 @@
       <c r="C214">
         <v>11079.3</v>
       </c>
-      <c r="D214" s="2">
+      <c r="D214">
         <v>527349</v>
       </c>
-      <c r="E214" s="2">
+      <c r="E214">
         <v>4269675</v>
       </c>
       <c r="F214" t="s">
@@ -9279,10 +9278,10 @@
       <c r="C215">
         <v>11079.4</v>
       </c>
-      <c r="D215" s="2">
+      <c r="D215">
         <v>527349</v>
       </c>
-      <c r="E215" s="2">
+      <c r="E215">
         <v>4269675</v>
       </c>
       <c r="F215" t="s">
@@ -9317,10 +9316,10 @@
       <c r="C216">
         <v>11079.5</v>
       </c>
-      <c r="D216" s="2">
+      <c r="D216">
         <v>527349</v>
       </c>
-      <c r="E216" s="2">
+      <c r="E216">
         <v>4269675</v>
       </c>
       <c r="F216" t="s">
@@ -9355,10 +9354,10 @@
       <c r="C217">
         <v>11081</v>
       </c>
-      <c r="D217" s="2">
+      <c r="D217">
         <v>527327</v>
       </c>
-      <c r="E217" s="2">
+      <c r="E217">
         <v>4269675</v>
       </c>
       <c r="F217" t="s">
@@ -9399,10 +9398,10 @@
       <c r="C218">
         <v>11082</v>
       </c>
-      <c r="D218" s="2">
+      <c r="D218">
         <v>527379</v>
       </c>
-      <c r="E218" s="2">
+      <c r="E218">
         <v>4269672</v>
       </c>
       <c r="F218" t="s">
@@ -9437,10 +9436,10 @@
       <c r="C219">
         <v>11082.1</v>
       </c>
-      <c r="D219" s="2">
+      <c r="D219">
         <v>527379</v>
       </c>
-      <c r="E219" s="2">
+      <c r="E219">
         <v>4269672</v>
       </c>
       <c r="F219" t="s">
@@ -9475,10 +9474,10 @@
       <c r="C220">
         <v>11082.2</v>
       </c>
-      <c r="D220" s="2">
+      <c r="D220">
         <v>527379</v>
       </c>
-      <c r="E220" s="2">
+      <c r="E220">
         <v>4269672</v>
       </c>
       <c r="F220" t="s">
@@ -9513,10 +9512,10 @@
       <c r="C221">
         <v>11083</v>
       </c>
-      <c r="D221" s="2">
+      <c r="D221">
         <v>527365</v>
       </c>
-      <c r="E221" s="2">
+      <c r="E221">
         <v>4268680</v>
       </c>
       <c r="F221" t="s">
@@ -9557,10 +9556,10 @@
       <c r="C222">
         <v>11083.1</v>
       </c>
-      <c r="D222" s="2">
+      <c r="D222">
         <v>527365</v>
       </c>
-      <c r="E222" s="2">
+      <c r="E222">
         <v>4268680</v>
       </c>
       <c r="F222" t="s">
@@ -9595,10 +9594,10 @@
       <c r="C223">
         <v>999.61</v>
       </c>
-      <c r="D223" s="2">
+      <c r="D223">
         <v>527365</v>
       </c>
-      <c r="E223" s="2">
+      <c r="E223">
         <v>4268680</v>
       </c>
       <c r="F223" t="s">
@@ -9633,10 +9632,10 @@
       <c r="C224">
         <v>999.62</v>
       </c>
-      <c r="D224" s="2">
+      <c r="D224">
         <v>527359</v>
       </c>
-      <c r="E224" s="2">
+      <c r="E224">
         <v>4269688</v>
       </c>
       <c r="F224" t="s">
@@ -9671,10 +9670,10 @@
       <c r="C225">
         <v>999.63</v>
       </c>
-      <c r="D225" s="2">
+      <c r="D225">
         <v>527341</v>
       </c>
-      <c r="E225" s="2">
+      <c r="E225">
         <v>4269678</v>
       </c>
       <c r="F225" t="s">
@@ -9709,10 +9708,10 @@
       <c r="C226">
         <v>999.64</v>
       </c>
-      <c r="D226" s="2">
+      <c r="D226">
         <v>527341</v>
       </c>
-      <c r="E226" s="2">
+      <c r="E226">
         <v>4269678</v>
       </c>
       <c r="F226" t="s">
@@ -9747,10 +9746,10 @@
       <c r="C227">
         <v>999.65</v>
       </c>
-      <c r="D227" s="2">
+      <c r="D227">
         <v>527341</v>
       </c>
-      <c r="E227" s="2">
+      <c r="E227">
         <v>4269678</v>
       </c>
       <c r="F227" t="s">
@@ -9785,10 +9784,10 @@
       <c r="C228">
         <v>11085</v>
       </c>
-      <c r="D228" s="2">
+      <c r="D228">
         <v>527337</v>
       </c>
-      <c r="E228" s="2">
+      <c r="E228">
         <v>4269679</v>
       </c>
       <c r="F228" t="s">
@@ -9829,10 +9828,10 @@
       <c r="C229">
         <v>999.66</v>
       </c>
-      <c r="D229" s="2">
+      <c r="D229">
         <v>527346</v>
       </c>
-      <c r="E229" s="2">
+      <c r="E229">
         <v>4269685</v>
       </c>
       <c r="F229" t="s">
@@ -9870,10 +9869,10 @@
       <c r="C230">
         <v>999.67</v>
       </c>
-      <c r="D230" s="2">
+      <c r="D230">
         <v>527349</v>
       </c>
-      <c r="E230" s="2">
+      <c r="E230">
         <v>4269695</v>
       </c>
       <c r="F230" t="s">
@@ -9908,10 +9907,10 @@
       <c r="C231">
         <v>11086</v>
       </c>
-      <c r="D231" s="2">
+      <c r="D231">
         <v>527353</v>
       </c>
-      <c r="E231" s="2">
+      <c r="E231">
         <v>4269696</v>
       </c>
       <c r="F231" t="s">
@@ -9952,10 +9951,10 @@
       <c r="C232">
         <v>11086.1</v>
       </c>
-      <c r="D232" s="2">
+      <c r="D232">
         <v>527353</v>
       </c>
-      <c r="E232" s="2">
+      <c r="E232">
         <v>4269696</v>
       </c>
       <c r="F232" t="s">
@@ -9990,10 +9989,10 @@
       <c r="C233">
         <v>11087</v>
       </c>
-      <c r="D233" s="2">
+      <c r="D233">
         <v>527349</v>
       </c>
-      <c r="E233" s="2">
+      <c r="E233">
         <v>4269691</v>
       </c>
       <c r="F233" t="s">
@@ -10037,10 +10036,10 @@
       <c r="C234">
         <v>999.68</v>
       </c>
-      <c r="D234" s="2">
+      <c r="D234">
         <v>527350</v>
       </c>
-      <c r="E234" s="2">
+      <c r="E234">
         <v>4269698</v>
       </c>
       <c r="F234" t="s">
@@ -10075,10 +10074,10 @@
       <c r="C235">
         <v>11088</v>
       </c>
-      <c r="D235" s="2">
+      <c r="D235">
         <v>527348</v>
       </c>
-      <c r="E235" s="2">
+      <c r="E235">
         <v>4269694</v>
       </c>
       <c r="F235" t="s">
@@ -10119,10 +10118,10 @@
       <c r="C236">
         <v>999.69</v>
       </c>
-      <c r="D236" s="2">
+      <c r="D236">
         <v>527348</v>
       </c>
-      <c r="E236" s="2">
+      <c r="E236">
         <v>4269709</v>
       </c>
       <c r="F236" t="s">
@@ -10157,10 +10156,10 @@
       <c r="C237">
         <v>999.71</v>
       </c>
-      <c r="D237" s="2">
+      <c r="D237">
         <v>527356</v>
       </c>
-      <c r="E237" s="2">
+      <c r="E237">
         <v>4260718</v>
       </c>
       <c r="F237" t="s">
@@ -10195,10 +10194,10 @@
       <c r="C238">
         <v>11089</v>
       </c>
-      <c r="D238" s="2">
+      <c r="D238">
         <v>527354</v>
       </c>
-      <c r="E238" s="2">
+      <c r="E238">
         <v>4269713</v>
       </c>
       <c r="F238" t="s">
@@ -10239,10 +10238,10 @@
       <c r="C239">
         <v>11089.1</v>
       </c>
-      <c r="D239" s="2">
+      <c r="D239">
         <v>527354</v>
       </c>
-      <c r="E239" s="2">
+      <c r="E239">
         <v>4269713</v>
       </c>
       <c r="F239" t="s">
@@ -10277,10 +10276,10 @@
       <c r="C240">
         <v>11089.2</v>
       </c>
-      <c r="D240" s="2">
+      <c r="D240">
         <v>527354</v>
       </c>
-      <c r="E240" s="2">
+      <c r="E240">
         <v>4269713</v>
       </c>
       <c r="F240" t="s">
@@ -10315,10 +10314,10 @@
       <c r="C241">
         <v>999.72</v>
       </c>
-      <c r="D241" s="2">
+      <c r="D241">
         <v>527357</v>
       </c>
-      <c r="E241" s="2">
+      <c r="E241">
         <v>4269714</v>
       </c>
       <c r="F241" t="s">
@@ -10353,10 +10352,10 @@
       <c r="C242">
         <v>999.73</v>
       </c>
-      <c r="D242" s="2">
+      <c r="D242">
         <v>527358</v>
       </c>
-      <c r="E242" s="2">
+      <c r="E242">
         <v>4269715</v>
       </c>
       <c r="F242" t="s">
@@ -10391,10 +10390,10 @@
       <c r="C243">
         <v>11090</v>
       </c>
-      <c r="D243" s="2">
+      <c r="D243">
         <v>527357</v>
       </c>
-      <c r="E243" s="2">
+      <c r="E243">
         <v>4269723</v>
       </c>
       <c r="F243" t="s">
@@ -10435,10 +10434,10 @@
       <c r="C244">
         <v>999.14300000000003</v>
       </c>
-      <c r="D244" s="2">
+      <c r="D244">
         <v>527363</v>
       </c>
-      <c r="E244" s="2">
+      <c r="E244">
         <v>4269714</v>
       </c>
       <c r="F244" t="s">
@@ -10473,10 +10472,10 @@
       <c r="C245">
         <v>999.74</v>
       </c>
-      <c r="D245" s="2">
+      <c r="D245">
         <v>527363</v>
       </c>
-      <c r="E245" s="2">
+      <c r="E245">
         <v>4269714</v>
       </c>
       <c r="F245" t="s">
@@ -10511,10 +10510,10 @@
       <c r="C246">
         <v>11091</v>
       </c>
-      <c r="D246" s="2">
+      <c r="D246">
         <v>527362</v>
       </c>
-      <c r="E246" s="2">
+      <c r="E246">
         <v>4269714</v>
       </c>
       <c r="F246" t="s">
@@ -10552,10 +10551,10 @@
       <c r="C247">
         <v>999.75</v>
       </c>
-      <c r="D247" s="2">
+      <c r="D247">
         <v>527367</v>
       </c>
-      <c r="E247" s="2">
+      <c r="E247">
         <v>4269727</v>
       </c>
       <c r="F247" t="s">
@@ -10593,10 +10592,10 @@
       <c r="C248">
         <v>999.76</v>
       </c>
-      <c r="D248" s="2">
+      <c r="D248">
         <v>527367</v>
       </c>
-      <c r="E248" s="2">
+      <c r="E248">
         <v>4269726</v>
       </c>
       <c r="F248" t="s">
@@ -10631,10 +10630,10 @@
       <c r="C249">
         <v>11092</v>
       </c>
-      <c r="D249" s="2">
+      <c r="D249">
         <v>527366</v>
       </c>
-      <c r="E249" s="2">
+      <c r="E249">
         <v>4269726</v>
       </c>
       <c r="F249" t="s">
@@ -10675,10 +10674,10 @@
       <c r="C250">
         <v>11092.1</v>
       </c>
-      <c r="D250" s="2">
+      <c r="D250">
         <v>527366</v>
       </c>
-      <c r="E250" s="2">
+      <c r="E250">
         <v>4269726</v>
       </c>
       <c r="F250" t="s">
@@ -10713,10 +10712,10 @@
       <c r="C251">
         <v>11092.2</v>
       </c>
-      <c r="D251" s="2">
+      <c r="D251">
         <v>527366</v>
       </c>
-      <c r="E251" s="2">
+      <c r="E251">
         <v>4269726</v>
       </c>
       <c r="F251" t="s">
@@ -10751,10 +10750,10 @@
       <c r="C252">
         <v>999.77</v>
       </c>
-      <c r="D252" s="2">
+      <c r="D252">
         <v>527364</v>
       </c>
-      <c r="E252" s="2">
+      <c r="E252">
         <v>4269725</v>
       </c>
       <c r="F252" t="s">
@@ -10789,10 +10788,10 @@
       <c r="C253">
         <v>999.78</v>
       </c>
-      <c r="D253" s="2">
+      <c r="D253">
         <v>527350</v>
       </c>
-      <c r="E253" s="2">
+      <c r="E253">
         <v>4269719</v>
       </c>
       <c r="F253" t="s">
@@ -10827,10 +10826,10 @@
       <c r="C254">
         <v>11093</v>
       </c>
-      <c r="D254" s="2">
+      <c r="D254">
         <v>527350</v>
       </c>
-      <c r="E254" s="2">
+      <c r="E254">
         <v>4269721</v>
       </c>
       <c r="F254" t="s">
@@ -10871,10 +10870,10 @@
       <c r="C255">
         <v>999.79</v>
       </c>
-      <c r="D255" s="2">
+      <c r="D255">
         <v>527344</v>
       </c>
-      <c r="E255" s="2">
+      <c r="E255">
         <v>4269718</v>
       </c>
       <c r="F255" t="s">
@@ -10909,10 +10908,10 @@
       <c r="C256">
         <v>11094</v>
       </c>
-      <c r="D256" s="2">
+      <c r="D256">
         <v>527344</v>
       </c>
-      <c r="E256" s="2">
+      <c r="E256">
         <v>4269717</v>
       </c>
       <c r="F256" t="s">
@@ -10953,10 +10952,10 @@
       <c r="C257">
         <v>999.81</v>
       </c>
-      <c r="D257" s="2">
+      <c r="D257">
         <v>527344</v>
       </c>
-      <c r="E257" s="2">
+      <c r="E257">
         <v>4269718</v>
       </c>
       <c r="F257" t="s">
@@ -10991,10 +10990,10 @@
       <c r="C258">
         <v>11094.1</v>
       </c>
-      <c r="D258" s="2">
+      <c r="D258">
         <v>527344</v>
       </c>
-      <c r="E258" s="2">
+      <c r="E258">
         <v>4269717</v>
       </c>
       <c r="F258" t="s">
@@ -11032,10 +11031,10 @@
       <c r="C259">
         <v>11095</v>
       </c>
-      <c r="D259" s="2">
+      <c r="D259">
         <v>527333</v>
       </c>
-      <c r="E259" s="2">
+      <c r="E259">
         <v>4269722</v>
       </c>
       <c r="F259" t="s">
@@ -11076,10 +11075,10 @@
       <c r="C260">
         <v>999.82</v>
       </c>
-      <c r="D260" s="2">
+      <c r="D260">
         <v>527333</v>
       </c>
-      <c r="E260" s="2">
+      <c r="E260">
         <v>4269720</v>
       </c>
       <c r="F260" t="s">
@@ -11111,10 +11110,10 @@
       <c r="C261">
         <v>11096</v>
       </c>
-      <c r="D261" s="2">
+      <c r="D261">
         <v>527341</v>
       </c>
-      <c r="E261" s="2">
+      <c r="E261">
         <v>4269729</v>
       </c>
       <c r="F261" t="s">
@@ -11155,10 +11154,10 @@
       <c r="C262">
         <v>999.83</v>
       </c>
-      <c r="D262" s="2">
+      <c r="D262">
         <v>527330</v>
       </c>
-      <c r="E262" s="2">
+      <c r="E262">
         <v>4269724</v>
       </c>
       <c r="F262" t="s">
@@ -11193,10 +11192,10 @@
       <c r="C263">
         <v>999.84</v>
       </c>
-      <c r="D263" s="2">
+      <c r="D263">
         <v>527338</v>
       </c>
-      <c r="E263" s="2">
+      <c r="E263">
         <v>4269727</v>
       </c>
       <c r="F263" t="s">
@@ -11231,10 +11230,10 @@
       <c r="C264">
         <v>11097</v>
       </c>
-      <c r="D264" s="2">
+      <c r="D264">
         <v>527341</v>
       </c>
-      <c r="E264" s="2">
+      <c r="E264">
         <v>4269731</v>
       </c>
       <c r="F264" t="s">
@@ -11275,10 +11274,10 @@
       <c r="C265">
         <v>11098</v>
       </c>
-      <c r="D265" s="2">
+      <c r="D265">
         <v>527339</v>
       </c>
-      <c r="E265" s="2">
+      <c r="E265">
         <v>4269734</v>
       </c>
       <c r="F265" t="s">
@@ -11313,10 +11312,10 @@
       <c r="C266">
         <v>11098.1</v>
       </c>
-      <c r="D266" s="2">
+      <c r="D266">
         <v>527339</v>
       </c>
-      <c r="E266" s="2">
+      <c r="E266">
         <v>4269734</v>
       </c>
       <c r="F266" t="s">
@@ -11351,10 +11350,10 @@
       <c r="C267">
         <v>11098.2</v>
       </c>
-      <c r="D267" s="2">
+      <c r="D267">
         <v>527339</v>
       </c>
-      <c r="E267" s="2">
+      <c r="E267">
         <v>4269734</v>
       </c>
       <c r="F267" t="s">
@@ -11389,10 +11388,10 @@
       <c r="C268">
         <v>999.85</v>
       </c>
-      <c r="D268" s="2">
+      <c r="D268">
         <v>527339</v>
       </c>
-      <c r="E268" s="2">
+      <c r="E268">
         <v>4269733</v>
       </c>
       <c r="F268" t="s">
@@ -11427,10 +11426,10 @@
       <c r="C269">
         <v>11099</v>
       </c>
-      <c r="D269" s="2">
+      <c r="D269">
         <v>527329</v>
       </c>
-      <c r="E269" s="2">
+      <c r="E269">
         <v>4269729</v>
       </c>
       <c r="F269" t="s">
@@ -11465,10 +11464,10 @@
       <c r="C270">
         <v>11099.1</v>
       </c>
-      <c r="D270" s="2">
+      <c r="D270">
         <v>527329</v>
       </c>
-      <c r="E270" s="2">
+      <c r="E270">
         <v>4269729</v>
       </c>
       <c r="F270" t="s">
@@ -11509,10 +11508,10 @@
       <c r="C271">
         <v>11099.2</v>
       </c>
-      <c r="D271" s="2">
+      <c r="D271">
         <v>527329</v>
       </c>
-      <c r="E271" s="2">
+      <c r="E271">
         <v>4269729</v>
       </c>
       <c r="F271" t="s">
@@ -11550,10 +11549,10 @@
       <c r="C272">
         <v>999.86</v>
       </c>
-      <c r="D272" s="2">
+      <c r="D272">
         <v>527329</v>
       </c>
-      <c r="E272" s="2">
+      <c r="E272">
         <v>4269729</v>
       </c>
       <c r="F272" t="s">
@@ -11588,10 +11587,10 @@
       <c r="C273">
         <v>11100</v>
       </c>
-      <c r="D273" s="2">
+      <c r="D273">
         <v>527351</v>
       </c>
-      <c r="E273" s="2">
+      <c r="E273">
         <v>4269730</v>
       </c>
       <c r="F273" t="s">
@@ -11632,10 +11631,10 @@
       <c r="C274">
         <v>11101</v>
       </c>
-      <c r="D274" s="2">
+      <c r="D274">
         <v>527351</v>
       </c>
-      <c r="E274" s="2">
+      <c r="E274">
         <v>4269735</v>
       </c>
       <c r="F274" t="s">
@@ -11676,10 +11675,10 @@
       <c r="C275">
         <v>11101.1</v>
       </c>
-      <c r="D275" s="2">
+      <c r="D275">
         <v>527351</v>
       </c>
-      <c r="E275" s="2">
+      <c r="E275">
         <v>4269735</v>
       </c>
       <c r="F275" t="s">
@@ -11714,10 +11713,10 @@
       <c r="C276">
         <v>11102</v>
       </c>
-      <c r="D276" s="2">
+      <c r="D276">
         <v>527361</v>
       </c>
-      <c r="E276" s="2">
+      <c r="E276">
         <v>4269732</v>
       </c>
       <c r="F276" t="s">
@@ -11752,10 +11751,10 @@
       <c r="C277">
         <v>11102.1</v>
       </c>
-      <c r="D277" s="2">
+      <c r="D277">
         <v>527361</v>
       </c>
-      <c r="E277" s="2">
+      <c r="E277">
         <v>4269732</v>
       </c>
       <c r="F277" t="s">
@@ -11799,10 +11798,10 @@
       <c r="C278">
         <v>11103</v>
       </c>
-      <c r="D278" s="2">
+      <c r="D278">
         <v>527355</v>
       </c>
-      <c r="E278" s="2">
+      <c r="E278">
         <v>4269736</v>
       </c>
       <c r="F278" t="s">
@@ -11843,10 +11842,10 @@
       <c r="C279">
         <v>999.87</v>
       </c>
-      <c r="D279" s="2">
+      <c r="D279">
         <v>527362</v>
       </c>
-      <c r="E279" s="2">
+      <c r="E279">
         <v>4269735</v>
       </c>
       <c r="F279" t="s">
@@ -11881,10 +11880,10 @@
       <c r="C280">
         <v>999.88</v>
       </c>
-      <c r="D280" s="2">
+      <c r="D280">
         <v>527366</v>
       </c>
-      <c r="E280" s="2">
+      <c r="E280">
         <v>4269730</v>
       </c>
       <c r="F280" t="s">
@@ -11919,10 +11918,10 @@
       <c r="C281">
         <v>999.89</v>
       </c>
-      <c r="D281" s="2">
+      <c r="D281">
         <v>527367</v>
       </c>
-      <c r="E281" s="2">
+      <c r="E281">
         <v>4269729</v>
       </c>
       <c r="F281" t="s">
@@ -11957,10 +11956,10 @@
       <c r="C282">
         <v>999.91</v>
       </c>
-      <c r="D282" s="2">
+      <c r="D282">
         <v>527367</v>
       </c>
-      <c r="E282" s="2">
+      <c r="E282">
         <v>4269729</v>
       </c>
       <c r="F282" t="s">
@@ -11995,10 +11994,10 @@
       <c r="C283">
         <v>999.92</v>
       </c>
-      <c r="D283" s="2">
+      <c r="D283">
         <v>527367</v>
       </c>
-      <c r="E283" s="2">
+      <c r="E283">
         <v>4269729</v>
       </c>
       <c r="F283" t="s">
@@ -12030,10 +12029,10 @@
       <c r="C284">
         <v>999.93</v>
       </c>
-      <c r="D284" s="2">
+      <c r="D284">
         <v>527378</v>
       </c>
-      <c r="E284" s="2">
+      <c r="E284">
         <v>4269610</v>
       </c>
       <c r="F284" t="s">
@@ -12065,10 +12064,10 @@
       <c r="C285">
         <v>999.94</v>
       </c>
-      <c r="D285" s="2">
+      <c r="D285">
         <v>527381</v>
       </c>
-      <c r="E285" s="2">
+      <c r="E285">
         <v>4269708</v>
       </c>
       <c r="F285" t="s">
@@ -12100,10 +12099,10 @@
       <c r="C286">
         <v>999.95</v>
       </c>
-      <c r="D286" s="2">
+      <c r="D286">
         <v>527382</v>
       </c>
-      <c r="E286" s="2">
+      <c r="E286">
         <v>4269718</v>
       </c>
       <c r="F286" t="s">
@@ -12135,10 +12134,10 @@
       <c r="C287">
         <v>999.96</v>
       </c>
-      <c r="D287" s="2">
+      <c r="D287">
         <v>527385</v>
       </c>
-      <c r="E287" s="2">
+      <c r="E287">
         <v>4269712</v>
       </c>
       <c r="F287" t="s">
@@ -12170,10 +12169,10 @@
       <c r="C288">
         <v>11104</v>
       </c>
-      <c r="D288" s="2">
+      <c r="D288">
         <v>527385</v>
       </c>
-      <c r="E288" s="2">
+      <c r="E288">
         <v>4269717</v>
       </c>
       <c r="F288" t="s">
@@ -12214,10 +12213,10 @@
       <c r="C289">
         <v>11104.1</v>
       </c>
-      <c r="D289" s="2">
+      <c r="D289">
         <v>527385</v>
       </c>
-      <c r="E289" s="2">
+      <c r="E289">
         <v>4269717</v>
       </c>
       <c r="F289" t="s">
@@ -12249,10 +12248,10 @@
       <c r="C290">
         <v>11104.2</v>
       </c>
-      <c r="D290" s="2">
+      <c r="D290">
         <v>527385</v>
       </c>
-      <c r="E290" s="2">
+      <c r="E290">
         <v>4269717</v>
       </c>
       <c r="F290" t="s">
@@ -12284,10 +12283,10 @@
       <c r="C291">
         <v>11105</v>
       </c>
-      <c r="D291" s="2">
+      <c r="D291">
         <v>527383</v>
       </c>
-      <c r="E291" s="2">
+      <c r="E291">
         <v>4269721</v>
       </c>
       <c r="F291" t="s">
@@ -12325,10 +12324,10 @@
       <c r="C292">
         <v>11105.1</v>
       </c>
-      <c r="D292" s="2">
+      <c r="D292">
         <v>527383</v>
       </c>
-      <c r="E292" s="2">
+      <c r="E292">
         <v>4269721</v>
       </c>
       <c r="F292" t="s">
@@ -12360,10 +12359,10 @@
       <c r="C293">
         <v>999.97</v>
       </c>
-      <c r="D293" s="2">
+      <c r="D293">
         <v>527382</v>
       </c>
-      <c r="E293" s="2">
+      <c r="E293">
         <v>4269703</v>
       </c>
       <c r="F293" t="s">
@@ -12398,10 +12397,10 @@
       <c r="C294">
         <v>999.98</v>
       </c>
-      <c r="D294" s="2">
+      <c r="D294">
         <v>527384</v>
       </c>
-      <c r="E294" s="2">
+      <c r="E294">
         <v>4269701</v>
       </c>
       <c r="F294" t="s">
@@ -12436,10 +12435,10 @@
       <c r="C295">
         <v>999.99</v>
       </c>
-      <c r="D295" s="2">
+      <c r="D295">
         <v>527379</v>
       </c>
-      <c r="E295" s="2">
+      <c r="E295">
         <v>4269695</v>
       </c>
       <c r="F295" t="s">
@@ -12477,10 +12476,10 @@
       <c r="C296">
         <v>999.101</v>
       </c>
-      <c r="D296" s="2">
+      <c r="D296">
         <v>527386</v>
       </c>
-      <c r="E296" s="2">
+      <c r="E296">
         <v>4269702</v>
       </c>
       <c r="F296" t="s">
@@ -12515,10 +12514,10 @@
       <c r="C297">
         <v>999.10199999999998</v>
       </c>
-      <c r="D297" s="2">
+      <c r="D297">
         <v>527385</v>
       </c>
-      <c r="E297" s="2">
+      <c r="E297">
         <v>4269695</v>
       </c>
       <c r="F297" t="s">
@@ -12556,10 +12555,10 @@
       <c r="C298">
         <v>999.10299999999995</v>
       </c>
-      <c r="D298" s="2">
+      <c r="D298">
         <v>527393</v>
       </c>
-      <c r="E298" s="2">
+      <c r="E298">
         <v>4269683</v>
       </c>
       <c r="F298" t="s">
@@ -12594,10 +12593,10 @@
       <c r="C299">
         <v>11107</v>
       </c>
-      <c r="D299" s="2">
+      <c r="D299">
         <v>527394</v>
       </c>
-      <c r="E299" s="2">
+      <c r="E299">
         <v>4269684</v>
       </c>
       <c r="F299" t="s">
@@ -12635,10 +12634,10 @@
       <c r="C300">
         <v>999.10400000000004</v>
       </c>
-      <c r="D300" s="2">
+      <c r="D300">
         <v>527398</v>
       </c>
-      <c r="E300" s="2">
+      <c r="E300">
         <v>4269687</v>
       </c>
       <c r="F300" t="s">
@@ -12670,10 +12669,10 @@
       <c r="C301">
         <v>999.10500000000002</v>
       </c>
-      <c r="D301" s="2">
+      <c r="D301">
         <v>527395</v>
       </c>
-      <c r="E301" s="2">
+      <c r="E301">
         <v>4269685</v>
       </c>
       <c r="F301" t="s">
@@ -12705,10 +12704,10 @@
       <c r="C302">
         <v>999.10599999999999</v>
       </c>
-      <c r="D302" s="2">
+      <c r="D302">
         <v>527393</v>
       </c>
-      <c r="E302" s="2">
+      <c r="E302">
         <v>4269681</v>
       </c>
       <c r="F302" t="s">
@@ -12740,10 +12739,10 @@
       <c r="C303">
         <v>999.10699999999997</v>
       </c>
-      <c r="D303" s="2">
+      <c r="D303">
         <v>527398</v>
       </c>
-      <c r="E303" s="2">
+      <c r="E303">
         <v>4269670</v>
       </c>
       <c r="F303" t="s">
@@ -12775,10 +12774,10 @@
       <c r="C304">
         <v>11108</v>
       </c>
-      <c r="D304" s="2">
+      <c r="D304">
         <v>527398</v>
       </c>
-      <c r="E304" s="2">
+      <c r="E304">
         <v>4269670</v>
       </c>
       <c r="F304" t="s">
@@ -12816,10 +12815,10 @@
       <c r="C305">
         <v>11108.1</v>
       </c>
-      <c r="D305" s="2">
+      <c r="D305">
         <v>527398</v>
       </c>
-      <c r="E305" s="2">
+      <c r="E305">
         <v>4269670</v>
       </c>
       <c r="F305" t="s">
@@ -12851,10 +12850,10 @@
       <c r="C306">
         <v>11108.2</v>
       </c>
-      <c r="D306" s="2">
+      <c r="D306">
         <v>527398</v>
       </c>
-      <c r="E306" s="2">
+      <c r="E306">
         <v>4269670</v>
       </c>
       <c r="F306" t="s">
@@ -12886,10 +12885,10 @@
       <c r="C307">
         <v>999.10799999999995</v>
       </c>
-      <c r="D307" s="2">
+      <c r="D307">
         <v>527396</v>
       </c>
-      <c r="E307" s="2">
+      <c r="E307">
         <v>4269672</v>
       </c>
       <c r="F307" t="s">
@@ -12921,10 +12920,10 @@
       <c r="C308">
         <v>999.10900000000004</v>
       </c>
-      <c r="D308" s="2">
+      <c r="D308">
         <v>527375</v>
       </c>
-      <c r="E308" s="2">
+      <c r="E308">
         <v>4269671</v>
       </c>
       <c r="F308" t="s">
@@ -12956,10 +12955,10 @@
       <c r="C309">
         <v>11109</v>
       </c>
-      <c r="D309" s="2">
+      <c r="D309">
         <v>527385</v>
       </c>
-      <c r="E309" s="2">
+      <c r="E309">
         <v>4269663</v>
       </c>
       <c r="F309" t="s">
@@ -13000,10 +12999,10 @@
       <c r="C310">
         <v>11109.1</v>
       </c>
-      <c r="D310" s="2">
+      <c r="D310">
         <v>527385</v>
       </c>
-      <c r="E310" s="2">
+      <c r="E310">
         <v>4269663</v>
       </c>
       <c r="F310" t="s">
@@ -13035,10 +13034,10 @@
       <c r="C311">
         <v>11109.2</v>
       </c>
-      <c r="D311" s="2">
+      <c r="D311">
         <v>527385</v>
       </c>
-      <c r="E311" s="2">
+      <c r="E311">
         <v>4269663</v>
       </c>
       <c r="F311" t="s">
@@ -13073,10 +13072,10 @@
       <c r="C312">
         <v>11110</v>
       </c>
-      <c r="D312" s="2">
+      <c r="D312">
         <v>527338</v>
       </c>
-      <c r="E312" s="2">
+      <c r="E312">
         <v>4269661</v>
       </c>
       <c r="F312" t="s">
@@ -13114,10 +13113,10 @@
       <c r="C313">
         <v>11110.1</v>
       </c>
-      <c r="D313" s="2">
+      <c r="D313">
         <v>527338</v>
       </c>
-      <c r="E313" s="2">
+      <c r="E313">
         <v>4269661</v>
       </c>
       <c r="F313" t="s">
@@ -13149,10 +13148,10 @@
       <c r="C314">
         <v>11110.2</v>
       </c>
-      <c r="D314" s="2">
+      <c r="D314">
         <v>527338</v>
       </c>
-      <c r="E314" s="2">
+      <c r="E314">
         <v>4269661</v>
       </c>
       <c r="F314" t="s">
@@ -13184,10 +13183,10 @@
       <c r="C315">
         <v>11110.3</v>
       </c>
-      <c r="D315" s="2">
+      <c r="D315">
         <v>527338</v>
       </c>
-      <c r="E315" s="2">
+      <c r="E315">
         <v>4269661</v>
       </c>
       <c r="F315" t="s">
@@ -13219,10 +13218,10 @@
       <c r="C316">
         <v>11110.4</v>
       </c>
-      <c r="D316" s="2">
+      <c r="D316">
         <v>527338</v>
       </c>
-      <c r="E316" s="2">
+      <c r="E316">
         <v>4269661</v>
       </c>
       <c r="F316" t="s">
@@ -13254,10 +13253,10 @@
       <c r="C317">
         <v>11111</v>
       </c>
-      <c r="D317" s="2">
+      <c r="D317">
         <v>527390</v>
       </c>
-      <c r="E317" s="2">
+      <c r="E317">
         <v>4269661</v>
       </c>
       <c r="F317" t="s">
@@ -13295,10 +13294,10 @@
       <c r="C318">
         <v>11112</v>
       </c>
-      <c r="D318" s="2">
+      <c r="D318">
         <v>527394</v>
       </c>
-      <c r="E318" s="2">
+      <c r="E318">
         <v>4269660</v>
       </c>
       <c r="F318" t="s">
@@ -13336,10 +13335,10 @@
       <c r="C319">
         <v>11112.1</v>
       </c>
-      <c r="D319" s="2">
+      <c r="D319">
         <v>527394</v>
       </c>
-      <c r="E319" s="2">
+      <c r="E319">
         <v>4269660</v>
       </c>
       <c r="F319" t="s">
@@ -13371,10 +13370,10 @@
       <c r="C320">
         <v>11114</v>
       </c>
-      <c r="D320" s="2">
+      <c r="D320">
         <v>527397</v>
       </c>
-      <c r="E320" s="2">
+      <c r="E320">
         <v>4269661</v>
       </c>
       <c r="F320" t="s">
@@ -13406,10 +13405,10 @@
       <c r="C321">
         <v>11114.1</v>
       </c>
-      <c r="D321" s="2">
+      <c r="D321">
         <v>527397</v>
       </c>
-      <c r="E321" s="2">
+      <c r="E321">
         <v>4269661</v>
       </c>
       <c r="F321" t="s">
@@ -13441,10 +13440,10 @@
       <c r="C322">
         <v>11114.2</v>
       </c>
-      <c r="D322" s="2">
+      <c r="D322">
         <v>527397</v>
       </c>
-      <c r="E322" s="2">
+      <c r="E322">
         <v>4269661</v>
       </c>
       <c r="F322" t="s">
@@ -13476,10 +13475,10 @@
       <c r="C323">
         <v>11115</v>
       </c>
-      <c r="D323" s="2">
+      <c r="D323">
         <v>527406</v>
       </c>
-      <c r="E323" s="2">
+      <c r="E323">
         <v>4269665</v>
       </c>
       <c r="F323" t="s">
@@ -13511,10 +13510,10 @@
       <c r="C324">
         <v>11115.1</v>
       </c>
-      <c r="D324" s="2">
+      <c r="D324">
         <v>527406</v>
       </c>
-      <c r="E324" s="2">
+      <c r="E324">
         <v>4269665</v>
       </c>
       <c r="F324" t="s">
@@ -13552,10 +13551,10 @@
       <c r="C325">
         <v>11116</v>
       </c>
-      <c r="D325" s="2">
+      <c r="D325">
         <v>527406</v>
       </c>
-      <c r="E325" s="2">
+      <c r="E325">
         <v>4269665</v>
       </c>
       <c r="F325" t="s">
@@ -13587,10 +13586,10 @@
       <c r="C326">
         <v>11116.1</v>
       </c>
-      <c r="D326" s="2">
+      <c r="D326">
         <v>527406</v>
       </c>
-      <c r="E326" s="2">
+      <c r="E326">
         <v>4269665</v>
       </c>
       <c r="F326" t="s">
@@ -13628,10 +13627,10 @@
       <c r="C327">
         <v>11117</v>
       </c>
-      <c r="D327" s="2">
+      <c r="D327">
         <v>527409</v>
       </c>
-      <c r="E327" s="2">
+      <c r="E327">
         <v>4269659</v>
       </c>
       <c r="F327" t="s">
@@ -13669,10 +13668,10 @@
       <c r="C328">
         <v>11118</v>
       </c>
-      <c r="D328" s="2">
+      <c r="D328">
         <v>527411</v>
       </c>
-      <c r="E328" s="2">
+      <c r="E328">
         <v>4269656</v>
       </c>
       <c r="F328" t="s">
@@ -13710,10 +13709,10 @@
       <c r="C329">
         <v>11118.1</v>
       </c>
-      <c r="D329" s="2">
+      <c r="D329">
         <v>527411</v>
       </c>
-      <c r="E329" s="2">
+      <c r="E329">
         <v>4269656</v>
       </c>
       <c r="F329" t="s">
@@ -13745,10 +13744,10 @@
       <c r="C330">
         <v>11119</v>
       </c>
-      <c r="D330" s="2">
+      <c r="D330">
         <v>527398</v>
       </c>
-      <c r="E330" s="2">
+      <c r="E330">
         <v>4269734</v>
       </c>
       <c r="F330" t="s">
@@ -13786,10 +13785,10 @@
       <c r="C331">
         <v>11120</v>
       </c>
-      <c r="D331" s="2">
+      <c r="D331">
         <v>527393</v>
       </c>
-      <c r="E331" s="2">
+      <c r="E331">
         <v>4269763</v>
       </c>
       <c r="F331" t="s">
@@ -13827,10 +13826,10 @@
       <c r="C332">
         <v>11120.1</v>
       </c>
-      <c r="D332" s="2">
+      <c r="D332">
         <v>527393</v>
       </c>
-      <c r="E332" s="2">
+      <c r="E332">
         <v>4269763</v>
       </c>
       <c r="F332" t="s">
@@ -13862,10 +13861,10 @@
       <c r="C333">
         <v>11121</v>
       </c>
-      <c r="D333" s="2">
+      <c r="D333">
         <v>527394</v>
       </c>
-      <c r="E333" s="2">
+      <c r="E333">
         <v>4269735</v>
       </c>
       <c r="F333" t="s">
@@ -13903,10 +13902,10 @@
       <c r="C334">
         <v>11121.1</v>
       </c>
-      <c r="D334" s="2">
+      <c r="D334">
         <v>527394</v>
       </c>
-      <c r="E334" s="2">
+      <c r="E334">
         <v>4269735</v>
       </c>
       <c r="F334" t="s">
@@ -13938,10 +13937,10 @@
       <c r="C335">
         <v>11121.2</v>
       </c>
-      <c r="D335" s="2">
+      <c r="D335">
         <v>527394</v>
       </c>
-      <c r="E335" s="2">
+      <c r="E335">
         <v>4269735</v>
       </c>
       <c r="F335" t="s">
@@ -13973,10 +13972,10 @@
       <c r="C336">
         <v>11121.3</v>
       </c>
-      <c r="D336" s="2">
+      <c r="D336">
         <v>527394</v>
       </c>
-      <c r="E336" s="2">
+      <c r="E336">
         <v>4269735</v>
       </c>
       <c r="F336" t="s">
@@ -14008,10 +14007,10 @@
       <c r="C337">
         <v>11122</v>
       </c>
-      <c r="D337" s="2">
+      <c r="D337">
         <v>527401</v>
       </c>
-      <c r="E337" s="2">
+      <c r="E337">
         <v>4269734</v>
       </c>
       <c r="F337" t="s">
@@ -14052,10 +14051,10 @@
       <c r="C338">
         <v>11122.1</v>
       </c>
-      <c r="D338" s="2">
+      <c r="D338">
         <v>527401</v>
       </c>
-      <c r="E338" s="2">
+      <c r="E338">
         <v>4269734</v>
       </c>
       <c r="F338" t="s">
@@ -14090,10 +14089,10 @@
       <c r="C339">
         <v>11123</v>
       </c>
-      <c r="D339" s="2">
+      <c r="D339">
         <v>527402</v>
       </c>
-      <c r="E339" s="2">
+      <c r="E339">
         <v>4269734</v>
       </c>
       <c r="F339" t="s">
@@ -14137,10 +14136,10 @@
       <c r="C340">
         <v>11124</v>
       </c>
-      <c r="D340" s="2">
+      <c r="D340">
         <v>527405</v>
       </c>
-      <c r="E340" s="2">
+      <c r="E340">
         <v>4269740</v>
       </c>
       <c r="F340" t="s">
@@ -14184,10 +14183,10 @@
       <c r="C341">
         <v>11124.1</v>
       </c>
-      <c r="D341" s="2">
+      <c r="D341">
         <v>527405</v>
       </c>
-      <c r="E341" s="2">
+      <c r="E341">
         <v>4269740</v>
       </c>
       <c r="F341" t="s">
@@ -14225,10 +14224,10 @@
       <c r="C342">
         <v>11125</v>
       </c>
-      <c r="D342" s="2">
+      <c r="D342">
         <v>527401</v>
       </c>
-      <c r="E342" s="2">
+      <c r="E342">
         <v>4269739</v>
       </c>
       <c r="F342" t="s">
@@ -14272,10 +14271,10 @@
       <c r="C343">
         <v>11126</v>
       </c>
-      <c r="D343" s="2">
+      <c r="D343">
         <v>527407</v>
       </c>
-      <c r="E343" s="2">
+      <c r="E343">
         <v>4269741</v>
       </c>
       <c r="F343" t="s">
@@ -14319,10 +14318,10 @@
       <c r="C344">
         <v>11127</v>
       </c>
-      <c r="D344" s="2">
+      <c r="D344">
         <v>527411</v>
       </c>
-      <c r="E344" s="2">
+      <c r="E344">
         <v>4269740</v>
       </c>
       <c r="F344" t="s">
@@ -14366,10 +14365,10 @@
       <c r="C345">
         <v>11128</v>
       </c>
-      <c r="D345" s="2">
+      <c r="D345">
         <v>527412</v>
       </c>
-      <c r="E345" s="2">
+      <c r="E345">
         <v>4269739</v>
       </c>
       <c r="F345" t="s">
@@ -14413,10 +14412,10 @@
       <c r="C346">
         <v>11129</v>
       </c>
-      <c r="D346" s="2">
+      <c r="D346">
         <v>527413</v>
       </c>
-      <c r="E346" s="2">
+      <c r="E346">
         <v>4269738</v>
       </c>
       <c r="F346" t="s">
@@ -14460,10 +14459,10 @@
       <c r="C347">
         <v>11130</v>
       </c>
-      <c r="D347" s="2">
+      <c r="D347">
         <v>527416</v>
       </c>
-      <c r="E347" s="2">
+      <c r="E347">
         <v>4269735</v>
       </c>
       <c r="F347" t="s">
@@ -14507,10 +14506,10 @@
       <c r="C348">
         <v>11130.1</v>
       </c>
-      <c r="D348" s="2">
+      <c r="D348">
         <v>527416</v>
       </c>
-      <c r="E348" s="2">
+      <c r="E348">
         <v>4269735</v>
       </c>
       <c r="F348" t="s">
@@ -14545,10 +14544,10 @@
       <c r="C349">
         <v>11130.2</v>
       </c>
-      <c r="D349" s="2">
+      <c r="D349">
         <v>527416</v>
       </c>
-      <c r="E349" s="2">
+      <c r="E349">
         <v>4269735</v>
       </c>
       <c r="F349" t="s">
@@ -14583,10 +14582,10 @@
       <c r="C350">
         <v>11131</v>
       </c>
-      <c r="D350" s="2">
+      <c r="D350">
         <v>527416</v>
       </c>
-      <c r="E350" s="2">
+      <c r="E350">
         <v>4269733</v>
       </c>
       <c r="F350" t="s">
@@ -14630,10 +14629,10 @@
       <c r="C351">
         <v>11131.1</v>
       </c>
-      <c r="D351" s="2">
+      <c r="D351">
         <v>527416</v>
       </c>
-      <c r="E351" s="2">
+      <c r="E351">
         <v>4269733</v>
       </c>
       <c r="F351" t="s">
@@ -14671,10 +14670,10 @@
       <c r="C352">
         <v>11132</v>
       </c>
-      <c r="D352" s="2">
+      <c r="D352">
         <v>527418</v>
       </c>
-      <c r="E352" s="2">
+      <c r="E352">
         <v>4269736</v>
       </c>
       <c r="F352" t="s">
@@ -14718,10 +14717,10 @@
       <c r="C353">
         <v>11133</v>
       </c>
-      <c r="D353" s="2">
+      <c r="D353">
         <v>527410</v>
       </c>
-      <c r="E353" s="2">
+      <c r="E353">
         <v>4269746</v>
       </c>
       <c r="F353" t="s">
@@ -14765,10 +14764,10 @@
       <c r="C354">
         <v>11134</v>
       </c>
-      <c r="D354" s="2">
+      <c r="D354">
         <v>527406</v>
       </c>
-      <c r="E354" s="2">
+      <c r="E354">
         <v>4269732</v>
       </c>
       <c r="F354" t="s">
@@ -14812,10 +14811,10 @@
       <c r="C355">
         <v>11134.1</v>
       </c>
-      <c r="D355" s="2">
+      <c r="D355">
         <v>527406</v>
       </c>
-      <c r="E355" s="2">
+      <c r="E355">
         <v>4269732</v>
       </c>
       <c r="F355" t="s">
@@ -14853,10 +14852,10 @@
       <c r="C356">
         <v>11135</v>
       </c>
-      <c r="D356" s="2">
+      <c r="D356">
         <v>527412</v>
       </c>
-      <c r="E356" s="2">
+      <c r="E356">
         <v>4269730</v>
       </c>
       <c r="F356" t="s">
@@ -14900,10 +14899,10 @@
       <c r="C357">
         <v>11136</v>
       </c>
-      <c r="D357" s="2">
+      <c r="D357">
         <v>527408</v>
       </c>
-      <c r="E357" s="2">
+      <c r="E357">
         <v>4269726</v>
       </c>
       <c r="F357" t="s">
@@ -14947,10 +14946,10 @@
       <c r="C358">
         <v>11136.1</v>
       </c>
-      <c r="D358" s="2">
+      <c r="D358">
         <v>527408</v>
       </c>
-      <c r="E358" s="2">
+      <c r="E358">
         <v>4269726</v>
       </c>
       <c r="F358" t="s">
@@ -14988,10 +14987,10 @@
       <c r="C359">
         <v>999.11099999999999</v>
       </c>
-      <c r="D359" s="2">
+      <c r="D359">
         <v>527425</v>
       </c>
-      <c r="E359" s="2">
+      <c r="E359">
         <v>4269713</v>
       </c>
       <c r="F359" t="s">
@@ -15026,10 +15025,10 @@
       <c r="C360">
         <v>11137</v>
       </c>
-      <c r="D360" s="2">
+      <c r="D360">
         <v>527423</v>
       </c>
-      <c r="E360" s="2">
+      <c r="E360">
         <v>4269698</v>
       </c>
       <c r="F360" t="s">
@@ -15070,10 +15069,10 @@
       <c r="C361">
         <v>11137.1</v>
       </c>
-      <c r="D361" s="2">
+      <c r="D361">
         <v>527423</v>
       </c>
-      <c r="E361" s="2">
+      <c r="E361">
         <v>4269698</v>
       </c>
       <c r="F361" t="s">
@@ -15111,10 +15110,10 @@
       <c r="C362">
         <v>11138</v>
       </c>
-      <c r="D362" s="2">
+      <c r="D362">
         <v>527417</v>
       </c>
-      <c r="E362" s="2">
+      <c r="E362">
         <v>4269710</v>
       </c>
       <c r="F362" t="s">
@@ -15155,10 +15154,10 @@
       <c r="C363">
         <v>999.11199999999997</v>
       </c>
-      <c r="D363" s="2">
+      <c r="D363">
         <v>527413</v>
       </c>
-      <c r="E363" s="2">
+      <c r="E363">
         <v>4269707</v>
       </c>
       <c r="F363" t="s">
@@ -15193,10 +15192,10 @@
       <c r="C364">
         <v>999.11300000000006</v>
       </c>
-      <c r="D364" s="2">
+      <c r="D364">
         <v>527410</v>
       </c>
-      <c r="E364" s="2">
+      <c r="E364">
         <v>4269704</v>
       </c>
       <c r="F364" t="s">
@@ -15231,10 +15230,10 @@
       <c r="C365">
         <v>999.11400000000003</v>
       </c>
-      <c r="D365" s="2">
+      <c r="D365">
         <v>527413</v>
       </c>
-      <c r="E365" s="2">
+      <c r="E365">
         <v>4269707</v>
       </c>
       <c r="F365" t="s">
@@ -15269,10 +15268,10 @@
       <c r="C366">
         <v>11139</v>
       </c>
-      <c r="D366" s="2">
+      <c r="D366">
         <v>527409</v>
       </c>
-      <c r="E366" s="2">
+      <c r="E366">
         <v>4269702</v>
       </c>
       <c r="F366" t="s">
@@ -15313,10 +15312,10 @@
       <c r="C367">
         <v>11139.1</v>
       </c>
-      <c r="D367" s="2">
+      <c r="D367">
         <v>527409</v>
       </c>
-      <c r="E367" s="2">
+      <c r="E367">
         <v>4269702</v>
       </c>
       <c r="F367" t="s">
@@ -15348,10 +15347,10 @@
       <c r="C368">
         <v>999.11500000000001</v>
       </c>
-      <c r="D368" s="2">
+      <c r="D368">
         <v>527410</v>
       </c>
-      <c r="E368" s="2">
+      <c r="E368">
         <v>4269701</v>
       </c>
       <c r="F368" t="s">
@@ -15383,10 +15382,10 @@
       <c r="C369">
         <v>999.11599999999999</v>
       </c>
-      <c r="D369" s="2">
+      <c r="D369">
         <v>527405</v>
       </c>
-      <c r="E369" s="2">
+      <c r="E369">
         <v>4269703</v>
       </c>
       <c r="F369" t="s">
@@ -15418,10 +15417,10 @@
       <c r="C370">
         <v>999.11699999999996</v>
       </c>
-      <c r="D370" s="2">
+      <c r="D370">
         <v>527406</v>
       </c>
-      <c r="E370" s="2">
+      <c r="E370">
         <v>4269705</v>
       </c>
       <c r="F370" t="s">
@@ -15453,10 +15452,10 @@
       <c r="C371">
         <v>999.11800000000005</v>
       </c>
-      <c r="D371" s="2">
+      <c r="D371">
         <v>527403</v>
       </c>
-      <c r="E371" s="2">
+      <c r="E371">
         <v>4269706</v>
       </c>
       <c r="F371" t="s">
@@ -15488,10 +15487,10 @@
       <c r="C372">
         <v>11140</v>
       </c>
-      <c r="D372" s="2">
+      <c r="D372">
         <v>527395</v>
       </c>
-      <c r="E372" s="2">
+      <c r="E372">
         <v>4269716</v>
       </c>
       <c r="F372" t="s">
@@ -15529,10 +15528,10 @@
       <c r="C373">
         <v>999.11900000000003</v>
       </c>
-      <c r="D373" s="2">
+      <c r="D373">
         <v>527398</v>
       </c>
-      <c r="E373" s="2">
+      <c r="E373">
         <v>4269697</v>
       </c>
       <c r="F373" t="s">
@@ -15564,10 +15563,10 @@
       <c r="C374">
         <v>999.12099999999998</v>
       </c>
-      <c r="D374" s="2">
+      <c r="D374">
         <v>527400</v>
       </c>
-      <c r="E374" s="2">
+      <c r="E374">
         <v>4269688</v>
       </c>
       <c r="F374" t="s">
@@ -15599,10 +15598,10 @@
       <c r="C375">
         <v>999.12199999999996</v>
       </c>
-      <c r="D375" s="2">
+      <c r="D375">
         <v>527395</v>
       </c>
-      <c r="E375" s="2">
+      <c r="E375">
         <v>4269692</v>
       </c>
       <c r="F375" t="s">
@@ -15634,10 +15633,10 @@
       <c r="C376">
         <v>999.12300000000005</v>
       </c>
-      <c r="D376" s="2">
+      <c r="D376">
         <v>527385</v>
       </c>
-      <c r="E376" s="2">
+      <c r="E376">
         <v>4269699</v>
       </c>
       <c r="F376" t="s">
@@ -15672,10 +15671,10 @@
       <c r="C377">
         <v>11141</v>
       </c>
-      <c r="D377" s="2">
+      <c r="D377">
         <v>527381</v>
       </c>
-      <c r="E377" s="2">
+      <c r="E377">
         <v>4269719</v>
       </c>
       <c r="F377" t="s">
@@ -15713,10 +15712,10 @@
       <c r="C378">
         <v>11141.1</v>
       </c>
-      <c r="D378" s="2">
+      <c r="D378">
         <v>527381</v>
       </c>
-      <c r="E378" s="2">
+      <c r="E378">
         <v>4269719</v>
       </c>
       <c r="F378" t="s">
@@ -15748,10 +15747,10 @@
       <c r="C379">
         <v>11141.2</v>
       </c>
-      <c r="D379" s="2">
+      <c r="D379">
         <v>527381</v>
       </c>
-      <c r="E379" s="2">
+      <c r="E379">
         <v>4269719</v>
       </c>
       <c r="F379" t="s">
@@ -15783,10 +15782,10 @@
       <c r="C380">
         <v>11141.3</v>
       </c>
-      <c r="D380" s="2">
+      <c r="D380">
         <v>527381</v>
       </c>
-      <c r="E380" s="2">
+      <c r="E380">
         <v>4269719</v>
       </c>
       <c r="F380" t="s">
@@ -15818,10 +15817,10 @@
       <c r="C381">
         <v>11141.4</v>
       </c>
-      <c r="D381" s="2">
+      <c r="D381">
         <v>527381</v>
       </c>
-      <c r="E381" s="2">
+      <c r="E381">
         <v>4269719</v>
       </c>
       <c r="F381" t="s">
@@ -15853,10 +15852,10 @@
       <c r="C382">
         <v>11141.5</v>
       </c>
-      <c r="D382" s="2">
+      <c r="D382">
         <v>527381</v>
       </c>
-      <c r="E382" s="2">
+      <c r="E382">
         <v>4269719</v>
       </c>
       <c r="F382" t="s">
@@ -15888,10 +15887,10 @@
       <c r="C383">
         <v>11141.6</v>
       </c>
-      <c r="D383" s="2">
+      <c r="D383">
         <v>527381</v>
       </c>
-      <c r="E383" s="2">
+      <c r="E383">
         <v>4269719</v>
       </c>
       <c r="F383" t="s">
@@ -15923,10 +15922,10 @@
       <c r="C384">
         <v>11141.7</v>
       </c>
-      <c r="D384" s="2">
+      <c r="D384">
         <v>527381</v>
       </c>
-      <c r="E384" s="2">
+      <c r="E384">
         <v>4269719</v>
       </c>
       <c r="F384" t="s">
@@ -15958,10 +15957,10 @@
       <c r="C385">
         <v>11141.8</v>
       </c>
-      <c r="D385" s="2">
+      <c r="D385">
         <v>527381</v>
       </c>
-      <c r="E385" s="2">
+      <c r="E385">
         <v>4269719</v>
       </c>
       <c r="F385" t="s">
@@ -15993,10 +15992,10 @@
       <c r="C386">
         <v>11141.9</v>
       </c>
-      <c r="D386" s="2">
+      <c r="D386">
         <v>527381</v>
       </c>
-      <c r="E386" s="2">
+      <c r="E386">
         <v>4269719</v>
       </c>
       <c r="F386" t="s">
@@ -16028,10 +16027,10 @@
       <c r="C387">
         <v>11141.11</v>
       </c>
-      <c r="D387" s="2">
+      <c r="D387">
         <v>527381</v>
       </c>
-      <c r="E387" s="2">
+      <c r="E387">
         <v>4269719</v>
       </c>
       <c r="F387" t="s">
@@ -16063,10 +16062,10 @@
       <c r="C388">
         <v>999.12400000000002</v>
       </c>
-      <c r="D388" s="2">
+      <c r="D388">
         <v>527380</v>
       </c>
-      <c r="E388" s="2">
+      <c r="E388">
         <v>4269731</v>
       </c>
       <c r="F388" t="s">
@@ -16098,10 +16097,10 @@
       <c r="C389">
         <v>999.125</v>
       </c>
-      <c r="D389" s="2">
+      <c r="D389">
         <v>527379</v>
       </c>
-      <c r="E389" s="2">
+      <c r="E389">
         <v>4269721</v>
       </c>
       <c r="F389" t="s">
@@ -16133,10 +16132,10 @@
       <c r="C390">
         <v>999.12599999999998</v>
       </c>
-      <c r="D390" s="2">
+      <c r="D390">
         <v>527374</v>
       </c>
-      <c r="E390" s="2">
+      <c r="E390">
         <v>4269719</v>
       </c>
       <c r="F390" t="s">
@@ -16168,10 +16167,10 @@
       <c r="C391">
         <v>11142</v>
       </c>
-      <c r="D391" s="2">
+      <c r="D391">
         <v>527374</v>
       </c>
-      <c r="E391" s="2">
+      <c r="E391">
         <v>4269719</v>
       </c>
       <c r="F391" t="s">
@@ -16209,10 +16208,10 @@
       <c r="C392">
         <v>999.12699999999995</v>
       </c>
-      <c r="D392" s="2">
+      <c r="D392">
         <v>527375</v>
       </c>
-      <c r="E392" s="2">
+      <c r="E392">
         <v>4269721</v>
       </c>
       <c r="F392" t="s">
@@ -16244,10 +16243,10 @@
       <c r="C393">
         <v>11143</v>
       </c>
-      <c r="D393" s="2">
+      <c r="D393">
         <v>527376</v>
       </c>
-      <c r="E393" s="2">
+      <c r="E393">
         <v>4269742</v>
       </c>
       <c r="F393" t="s">
@@ -16285,10 +16284,10 @@
       <c r="C394">
         <v>999.12800000000004</v>
       </c>
-      <c r="D394" s="2">
+      <c r="D394">
         <v>527373</v>
       </c>
-      <c r="E394" s="2">
+      <c r="E394">
         <v>4269736</v>
       </c>
       <c r="F394" t="s">
@@ -16320,10 +16319,10 @@
       <c r="C395">
         <v>999.12900000000002</v>
       </c>
-      <c r="D395" s="2">
+      <c r="D395">
         <v>527388</v>
       </c>
-      <c r="E395" s="2">
+      <c r="E395">
         <v>4269725</v>
       </c>
       <c r="F395" t="s">
@@ -16352,10 +16351,10 @@
       <c r="C396">
         <v>999.13099999999997</v>
       </c>
-      <c r="D396" s="2">
+      <c r="D396">
         <v>527389</v>
       </c>
-      <c r="E396" s="2">
+      <c r="E396">
         <v>4269726</v>
       </c>
       <c r="F396" t="s">
@@ -16384,10 +16383,10 @@
       <c r="C397">
         <v>11144</v>
       </c>
-      <c r="D397" s="2">
+      <c r="D397">
         <v>527391</v>
       </c>
-      <c r="E397" s="2">
+      <c r="E397">
         <v>4269726</v>
       </c>
       <c r="F397" t="s">
@@ -16422,10 +16421,10 @@
       <c r="C398">
         <v>11144.1</v>
       </c>
-      <c r="D398" s="2">
+      <c r="D398">
         <v>527391</v>
       </c>
-      <c r="E398" s="2">
+      <c r="E398">
         <v>4269726</v>
       </c>
       <c r="F398" t="s">
@@ -16454,10 +16453,10 @@
       <c r="C399">
         <v>11144.2</v>
       </c>
-      <c r="D399" s="2">
+      <c r="D399">
         <v>527391</v>
       </c>
-      <c r="E399" s="2">
+      <c r="E399">
         <v>4269726</v>
       </c>
       <c r="F399" t="s">
@@ -16486,10 +16485,10 @@
       <c r="C400">
         <v>999.13199999999995</v>
       </c>
-      <c r="D400" s="2">
+      <c r="D400">
         <v>527404</v>
       </c>
-      <c r="E400" s="2">
+      <c r="E400">
         <v>4269724</v>
       </c>
       <c r="F400" t="s">
@@ -16518,10 +16517,10 @@
       <c r="C401">
         <v>11145</v>
       </c>
-      <c r="D401" s="2">
+      <c r="D401">
         <v>527400</v>
       </c>
-      <c r="E401" s="2">
+      <c r="E401">
         <v>4269724</v>
       </c>
       <c r="F401" t="s">
@@ -16556,10 +16555,10 @@
       <c r="C402">
         <v>11145.1</v>
       </c>
-      <c r="D402" s="2">
+      <c r="D402">
         <v>527400</v>
       </c>
-      <c r="E402" s="2">
+      <c r="E402">
         <v>4269724</v>
       </c>
       <c r="F402" t="s">
@@ -16588,10 +16587,10 @@
       <c r="C403">
         <v>11146</v>
       </c>
-      <c r="D403" s="2">
+      <c r="D403">
         <v>527400</v>
       </c>
-      <c r="E403" s="2">
+      <c r="E403">
         <v>4269724</v>
       </c>
       <c r="F403" t="s">
@@ -16626,10 +16625,10 @@
       <c r="C404">
         <v>11147</v>
       </c>
-      <c r="D404" s="2">
+      <c r="D404">
         <v>527408</v>
       </c>
-      <c r="E404" s="2">
+      <c r="E404">
         <v>4269726</v>
       </c>
       <c r="F404" t="s">
@@ -16664,10 +16663,10 @@
       <c r="C405">
         <v>11148</v>
       </c>
-      <c r="D405" s="2">
+      <c r="D405">
         <v>527416</v>
       </c>
-      <c r="E405" s="2">
+      <c r="E405">
         <v>4269719</v>
       </c>
       <c r="F405" t="s">
@@ -16702,10 +16701,10 @@
       <c r="C406">
         <v>11149</v>
       </c>
-      <c r="D406" s="2">
+      <c r="D406">
         <v>527389</v>
       </c>
-      <c r="E406" s="2">
+      <c r="E406">
         <v>4269730</v>
       </c>
       <c r="F406" t="s">
@@ -16740,10 +16739,10 @@
       <c r="C407">
         <v>11149.1</v>
       </c>
-      <c r="D407" s="2">
+      <c r="D407">
         <v>527389</v>
       </c>
-      <c r="E407" s="2">
+      <c r="E407">
         <v>4269730</v>
       </c>
       <c r="F407" t="s">
@@ -16772,10 +16771,10 @@
       <c r="C408">
         <v>11149.2</v>
       </c>
-      <c r="D408" s="2">
+      <c r="D408">
         <v>527389</v>
       </c>
-      <c r="E408" s="2">
+      <c r="E408">
         <v>4269730</v>
       </c>
       <c r="F408" t="s">
@@ -16804,10 +16803,10 @@
       <c r="C409">
         <v>999.13300000000004</v>
       </c>
-      <c r="D409" s="2">
+      <c r="D409">
         <v>527389</v>
       </c>
-      <c r="E409" s="2">
+      <c r="E409">
         <v>4269730</v>
       </c>
       <c r="F409" t="s">
@@ -16836,10 +16835,10 @@
       <c r="C410">
         <v>11158</v>
       </c>
-      <c r="D410" s="2">
+      <c r="D410">
         <v>527389</v>
       </c>
-      <c r="E410" s="2">
+      <c r="E410">
         <v>4268725</v>
       </c>
       <c r="F410" t="s">
@@ -16874,10 +16873,10 @@
       <c r="C411">
         <v>11158.1</v>
       </c>
-      <c r="D411" s="2">
+      <c r="D411">
         <v>527389</v>
       </c>
-      <c r="E411" s="2">
+      <c r="E411">
         <v>4268725</v>
       </c>
       <c r="F411" t="s">
@@ -16906,10 +16905,10 @@
       <c r="C412">
         <v>11158.2</v>
       </c>
-      <c r="D412" s="2">
+      <c r="D412">
         <v>527389</v>
       </c>
-      <c r="E412" s="2">
+      <c r="E412">
         <v>4268725</v>
       </c>
       <c r="F412" t="s">
@@ -16938,10 +16937,10 @@
       <c r="C413">
         <v>999.13400000000001</v>
       </c>
-      <c r="D413" s="2">
+      <c r="D413">
         <v>527363</v>
       </c>
-      <c r="E413" s="2">
+      <c r="E413">
         <v>4269736</v>
       </c>
       <c r="F413" t="s">
@@ -16970,10 +16969,10 @@
       <c r="C414">
         <v>999.13499999999999</v>
       </c>
-      <c r="D414" s="2">
+      <c r="D414">
         <v>527363</v>
       </c>
-      <c r="E414" s="2">
+      <c r="E414">
         <v>4269736</v>
       </c>
       <c r="F414" t="s">
@@ -17002,10 +17001,10 @@
       <c r="C415">
         <v>999.13599999999997</v>
       </c>
-      <c r="D415" s="2">
+      <c r="D415">
         <v>527366</v>
       </c>
-      <c r="E415" s="2">
+      <c r="E415">
         <v>4269727</v>
       </c>
       <c r="F415" t="s">
@@ -17034,10 +17033,10 @@
       <c r="C416">
         <v>999.13699999999994</v>
       </c>
-      <c r="D416" s="2">
+      <c r="D416">
         <v>527366</v>
       </c>
-      <c r="E416" s="2">
+      <c r="E416">
         <v>4269727</v>
       </c>
       <c r="F416" t="s">
@@ -17066,10 +17065,10 @@
       <c r="C417">
         <v>999.13800000000003</v>
       </c>
-      <c r="D417" s="2">
+      <c r="D417">
         <v>527366</v>
       </c>
-      <c r="E417" s="2">
+      <c r="E417">
         <v>4269727</v>
       </c>
       <c r="F417" t="s">
@@ -17098,10 +17097,10 @@
       <c r="C418">
         <v>999.13900000000001</v>
       </c>
-      <c r="D418" s="2">
+      <c r="D418">
         <v>527360</v>
       </c>
-      <c r="E418" s="2">
+      <c r="E418">
         <v>4269730</v>
       </c>
       <c r="F418" t="s">
@@ -17130,10 +17129,10 @@
       <c r="C419">
         <v>11150</v>
       </c>
-      <c r="D419" s="2">
+      <c r="D419">
         <v>527345</v>
       </c>
-      <c r="E419" s="2">
+      <c r="E419">
         <v>4269703</v>
       </c>
       <c r="F419" t="s">
@@ -17168,10 +17167,10 @@
       <c r="C420">
         <v>11150.1</v>
       </c>
-      <c r="D420" s="2">
+      <c r="D420">
         <v>527345</v>
       </c>
-      <c r="E420" s="2">
+      <c r="E420">
         <v>4269703</v>
       </c>
       <c r="F420" t="s">
@@ -17200,10 +17199,10 @@
       <c r="C421">
         <v>11150.2</v>
       </c>
-      <c r="D421" s="2">
+      <c r="D421">
         <v>527345</v>
       </c>
-      <c r="E421" s="2">
+      <c r="E421">
         <v>4269703</v>
       </c>
       <c r="F421" t="s">
@@ -17232,10 +17231,10 @@
       <c r="C422">
         <v>11150.3</v>
       </c>
-      <c r="D422" s="2">
+      <c r="D422">
         <v>527345</v>
       </c>
-      <c r="E422" s="2">
+      <c r="E422">
         <v>4269703</v>
       </c>
       <c r="F422" t="s">
@@ -17264,10 +17263,10 @@
       <c r="C423">
         <v>999.14099999999996</v>
       </c>
-      <c r="D423" s="2">
+      <c r="D423">
         <v>527392</v>
       </c>
-      <c r="E423" s="2">
+      <c r="E423">
         <v>4269692</v>
       </c>
       <c r="F423" t="s">
@@ -17296,10 +17295,10 @@
       <c r="C424">
         <v>11151</v>
       </c>
-      <c r="D424" s="2">
+      <c r="D424">
         <v>527404</v>
       </c>
-      <c r="E424" s="2">
+      <c r="E424">
         <v>4269685</v>
       </c>
       <c r="F424" t="s">
@@ -17334,10 +17333,10 @@
       <c r="C425">
         <v>11151.1</v>
       </c>
-      <c r="D425" s="2">
+      <c r="D425">
         <v>527404</v>
       </c>
-      <c r="E425" s="2">
+      <c r="E425">
         <v>4269685</v>
       </c>
       <c r="F425" t="s">
@@ -17366,10 +17365,10 @@
       <c r="C426">
         <v>11151.2</v>
       </c>
-      <c r="D426" s="2">
+      <c r="D426">
         <v>527404</v>
       </c>
-      <c r="E426" s="2">
+      <c r="E426">
         <v>4269685</v>
       </c>
       <c r="F426" t="s">
@@ -17398,10 +17397,10 @@
       <c r="C427">
         <v>11151.3</v>
       </c>
-      <c r="D427" s="2">
+      <c r="D427">
         <v>527404</v>
       </c>
-      <c r="E427" s="2">
+      <c r="E427">
         <v>4269685</v>
       </c>
       <c r="F427" t="s">
@@ -17430,10 +17429,10 @@
       <c r="C428">
         <v>11151.4</v>
       </c>
-      <c r="D428" s="2">
+      <c r="D428">
         <v>527404</v>
       </c>
-      <c r="E428" s="2">
+      <c r="E428">
         <v>4269685</v>
       </c>
       <c r="F428" t="s">
@@ -17462,10 +17461,10 @@
       <c r="C429">
         <v>11152</v>
       </c>
-      <c r="D429" s="2">
+      <c r="D429">
         <v>527412</v>
       </c>
-      <c r="E429" s="2">
+      <c r="E429">
         <v>4269673</v>
       </c>
       <c r="F429" t="s">
@@ -17494,10 +17493,10 @@
       <c r="C430">
         <v>11152.1</v>
       </c>
-      <c r="D430" s="2">
+      <c r="D430">
         <v>527412</v>
       </c>
-      <c r="E430" s="2">
+      <c r="E430">
         <v>4269673</v>
       </c>
       <c r="F430" t="s">
@@ -17526,10 +17525,10 @@
       <c r="C431">
         <v>11153</v>
       </c>
-      <c r="D431" s="2">
+      <c r="D431">
         <v>527412</v>
       </c>
-      <c r="E431" s="2">
+      <c r="E431">
         <v>4269673</v>
       </c>
       <c r="F431" t="s">
@@ -17558,10 +17557,10 @@
       <c r="C432">
         <v>11154</v>
       </c>
-      <c r="D432" s="2">
+      <c r="D432">
         <v>527410</v>
       </c>
-      <c r="E432" s="2">
+      <c r="E432">
         <v>4269687</v>
       </c>
       <c r="F432" t="s">
@@ -17596,10 +17595,10 @@
       <c r="C433">
         <v>11154.1</v>
       </c>
-      <c r="D433" s="2">
+      <c r="D433">
         <v>527410</v>
       </c>
-      <c r="E433" s="2">
+      <c r="E433">
         <v>4269687</v>
       </c>
       <c r="F433" t="s">
@@ -17628,10 +17627,10 @@
       <c r="C434">
         <v>11154.2</v>
       </c>
-      <c r="D434" s="2">
+      <c r="D434">
         <v>527410</v>
       </c>
-      <c r="E434" s="2">
+      <c r="E434">
         <v>4269687</v>
       </c>
       <c r="F434" t="s">
@@ -17663,10 +17662,10 @@
       <c r="C435">
         <v>999.14200000000005</v>
       </c>
-      <c r="D435" s="2">
+      <c r="D435">
         <v>527411</v>
       </c>
-      <c r="E435" s="2">
+      <c r="E435">
         <v>4269687</v>
       </c>
       <c r="F435" t="s">
@@ -17695,10 +17694,10 @@
       <c r="C436">
         <v>11155</v>
       </c>
-      <c r="D436" s="2">
+      <c r="D436">
         <v>527418</v>
       </c>
-      <c r="E436" s="2">
+      <c r="E436">
         <v>4269694</v>
       </c>
       <c r="F436" t="s">
@@ -17733,10 +17732,10 @@
       <c r="C437">
         <v>11155.1</v>
       </c>
-      <c r="D437" s="2">
+      <c r="D437">
         <v>527418</v>
       </c>
-      <c r="E437" s="2">
+      <c r="E437">
         <v>4269694</v>
       </c>
       <c r="F437" t="s">
@@ -17765,10 +17764,10 @@
       <c r="C438">
         <v>11155.2</v>
       </c>
-      <c r="D438" s="2">
+      <c r="D438">
         <v>527418</v>
       </c>
-      <c r="E438" s="2">
+      <c r="E438">
         <v>4269694</v>
       </c>
       <c r="F438" t="s">
@@ -17797,10 +17796,10 @@
       <c r="C439">
         <v>11156</v>
       </c>
-      <c r="D439" s="2">
+      <c r="D439">
         <v>527407</v>
       </c>
-      <c r="E439" s="2">
+      <c r="E439">
         <v>4269672</v>
       </c>
       <c r="F439" t="s">
@@ -17835,10 +17834,10 @@
       <c r="C440">
         <v>11157</v>
       </c>
-      <c r="D440" s="2">
+      <c r="D440">
         <v>527405</v>
       </c>
-      <c r="E440" s="2">
+      <c r="E440">
         <v>4269679</v>
       </c>
       <c r="F440" t="s">
@@ -17873,10 +17872,10 @@
       <c r="C441">
         <v>11157.1</v>
       </c>
-      <c r="D441" s="2">
+      <c r="D441">
         <v>527405</v>
       </c>
-      <c r="E441" s="2">
+      <c r="E441">
         <v>4269679</v>
       </c>
       <c r="F441" t="s">
@@ -17905,10 +17904,10 @@
       <c r="C442">
         <v>11157.2</v>
       </c>
-      <c r="D442" s="2">
+      <c r="D442">
         <v>527405</v>
       </c>
-      <c r="E442" s="2">
+      <c r="E442">
         <v>4269679</v>
       </c>
       <c r="F442" t="s">
